--- a/resources/inputText/corpus_tentative/other/twitter.xlsx
+++ b/resources/inputText/corpus_tentative/other/twitter.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="896">
   <si>
     <t>id</t>
   </si>
@@ -60,24 +60,15 @@
     <t>javiervoncount</t>
   </si>
   <si>
-    <t>@AntonioMaestre @MarcMiSan @lordfarnesi Un ficus no se fundiría la hucha de las pensiones, ni sacaría la Ley Mordaza, ni vendería la Sanidad al peso... Vota ficus!</t>
-  </si>
-  <si>
     <t>https://twitter.com/javiervoncount/status/1004360752470396929</t>
   </si>
   <si>
     <t>CarrascosaCris_</t>
   </si>
   <si>
-    <t>@javipas @jerolba @jlantunez Y todo porque desde la DGT dejan caer este tipo de CV  https://www.iberley.es/resoluciones/resolucion-vinculante-dgt-v4050-15-16-12-2015-1435226 …Las respuestas? Aplicando la ley a capón y exigiendo del contribuyente esfuerzos</t>
-  </si>
-  <si>
     <t>https://twitter.com/CarrascosaCris_/status/1004356535177416706</t>
   </si>
   <si>
-    <t>@javipas @jerolba @jlantunez Aquí los teóricos más puristas te dirán que claro, con la ley en la mano son donaciones y tienes que tributar por cada una de ellas. Como hacen con la permuta y las operaciones intracripto.</t>
-  </si>
-  <si>
     <t>https://twitter.com/CarrascosaCris_/status/1004354402428256258</t>
   </si>
   <si>
@@ -102,15 +93,9 @@
     <t>BlancoJuanM</t>
   </si>
   <si>
-    <t>@disidentia Mi columna en @Disidentia La Corrección Política es una doctrina fanática que amenaza la libertad, la sociedad abierta, la libertad de expresión, los derechos individuales, la igualdad ante la ley y el imperio de la razón  https://disidentia.c</t>
-  </si>
-  <si>
     <t>https://twitter.com/BlancoJuanM/status/1004336021893468161</t>
   </si>
   <si>
-    <t>@AntonioMaestre @MarcMiSan Never forget, la Ley Donde fue el germen que hizo posible la Ley Mordaza</t>
-  </si>
-  <si>
     <t>https://twitter.com/javiervoncount/status/1004335769060827137</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>doloreslledo</t>
   </si>
   <si>
-    <t>@favterrassa Ley de accesibilidad?...</t>
-  </si>
-  <si>
     <t>https://twitter.com/doloreslledo/status/1004291775371104256</t>
   </si>
   <si>
@@ -2518,14 +2500,241 @@
   </si>
   <si>
     <t>https://twitter.com/yassirhg/status/1000989121769345024</t>
+  </si>
+  <si>
+    <t>Gold Standard</t>
+  </si>
+  <si>
+    <t>Ley 13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @lordfarnesi Un ficus no se fundiría la hucha de las pensiones, ni sacaría la Ley Mordaza, ni vendería la Sanidad al peso... Vota ficus!</t>
+  </si>
+  <si>
+    <t>Ley Mordaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @jerolba @jlantunez Y todo porque desde la DGT dejan caer este tipo de CV  https://www.iberley.es/resoluciones/resolucion-vinculante-dgt-v4050-15-16-12-2015-1435226 …Las respuestas? Aplicando la ley a capón y exigiendo del contribuyente esfuerzos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @jerolba @jlantunez Aquí los teóricos más puristas te dirán que claro, con la ley en la mano son donaciones y tienes que tributar por cada una de ellas. Como hacen con la permuta y las operaciones intracripto.</t>
+  </si>
+  <si>
+    <t>la ley del 1-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mi columna en @Disidentia La Corrección Política es una doctrina fanática que amenaza la libertad, la sociedad abierta, la libertad de expresión, los derechos individuales, la igualdad ante la ley y el imperio de la razón  https://disidentia.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @MarcMiSan Never forget, la Ley Donde fue el germen que hizo posible la Ley Mordaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ley de accesibilidad?...</t>
+  </si>
+  <si>
+    <t>Ley de accesibilidad</t>
+  </si>
+  <si>
+    <t>ley la privacidad de las comunicaciones electrónicas</t>
+  </si>
+  <si>
+    <t>Ley de la lectura</t>
+  </si>
+  <si>
+    <t>Ley 3/2018 de Protección y Apoyo Garantizado para personas con discapacidad de Castilla La Mancha</t>
+  </si>
+  <si>
+    <t>Ley de Contratos del Sector Público</t>
+  </si>
+  <si>
+    <t>la ley de privacidad de datos</t>
+  </si>
+  <si>
+    <t>ley de #CambioClimático</t>
+  </si>
+  <si>
+    <t>ley de gravedad</t>
+  </si>
+  <si>
+    <t>protección de datos</t>
+  </si>
+  <si>
+    <t>ley contra la brecha salarial</t>
+  </si>
+  <si>
+    <t>ley de Moore</t>
+  </si>
+  <si>
+    <t>Ley de Igualdad Salarial, Ley de Igualdad de Trato entre Hombres y Mujeres</t>
+  </si>
+  <si>
+    <t>ley sobre cambio climático</t>
+  </si>
+  <si>
+    <t>Ley Cero</t>
+  </si>
+  <si>
+    <t>ley europea de protección de datos</t>
+  </si>
+  <si>
+    <t>Ley Aillagon</t>
+  </si>
+  <si>
+    <t>ley Antitabaco</t>
+  </si>
+  <si>
+    <t>ley del olvido</t>
+  </si>
+  <si>
+    <t>Ley para el mercado de la vivienda</t>
+  </si>
+  <si>
+    <t>la ley penal</t>
+  </si>
+  <si>
+    <t>Ley Hipotecaria</t>
+  </si>
+  <si>
+    <t>ley de protección de datos</t>
+  </si>
+  <si>
+    <t>ley la catalogación</t>
+  </si>
+  <si>
+    <t>Ley Sinde</t>
+  </si>
+  <si>
+    <t>ley de RTVE</t>
+  </si>
+  <si>
+    <t>ley sobre el cáñamo</t>
+  </si>
+  <si>
+    <t>ley que creará el Colegio de Logopedas</t>
+  </si>
+  <si>
+    <t>Ley de Patrimonio</t>
+  </si>
+  <si>
+    <t>ley de Patrimonio #histórico de #canarias</t>
+  </si>
+  <si>
+    <t>Ley de Transparencia</t>
+  </si>
+  <si>
+    <t>Ley mordaza, renovación de RTVE, memoria histórica</t>
+  </si>
+  <si>
+    <t>ley agraria</t>
+  </si>
+  <si>
+    <t>Ley Ordesa</t>
+  </si>
+  <si>
+    <t>ley madrileña, La de Aragón</t>
+  </si>
+  <si>
+    <t>ley de Aragón</t>
+  </si>
+  <si>
+    <t>ley con sanciones administrativas por expresiones vejatorias en redes sociales</t>
+  </si>
+  <si>
+    <t>Ley de la Ciencia y el Ministerio de Ciencia e Innovación que la gestó</t>
+  </si>
+  <si>
+    <t>ley electoral</t>
+  </si>
+  <si>
+    <t>Ley de Hanlon</t>
+  </si>
+  <si>
+    <t>ley electoral, LEY MORDAZA</t>
+  </si>
+  <si>
+    <t>ley del gabinete Rajoy, Ley de Secretos Empresariales</t>
+  </si>
+  <si>
+    <t>Ley de Murphy</t>
+  </si>
+  <si>
+    <t>Ley mordaza</t>
+  </si>
+  <si>
+    <t>ley corregida</t>
+  </si>
+  <si>
+    <t>Ley Electoral</t>
+  </si>
+  <si>
+    <t>ley que proteja a los menores</t>
+  </si>
+  <si>
+    <t>ley mirdaza</t>
+  </si>
+  <si>
+    <t>ley de clubs de cannabis</t>
+  </si>
+  <si>
+    <t>ley catalana</t>
+  </si>
+  <si>
+    <t>ley de privacidad</t>
+  </si>
+  <si>
+    <t>Ley de Dependencia</t>
+  </si>
+  <si>
+    <t>ley que garantice la muerte digna</t>
+  </si>
+  <si>
+    <t>ley de electricidad de Minería Bitcoin</t>
+  </si>
+  <si>
+    <t>ley de Sanidad de abril 2012</t>
+  </si>
+  <si>
+    <t>ley de plurilingüismo</t>
+  </si>
+  <si>
+    <t>Ley de plurilingüismo, LEY 4/2018</t>
+  </si>
+  <si>
+    <t>Ley Mordaza, Ley sanitaria de 2012</t>
+  </si>
+  <si>
+    <t>ley de Becas</t>
+  </si>
+  <si>
+    <t>ley de roaming</t>
+  </si>
+  <si>
+    <t>Ley electoral</t>
+  </si>
+  <si>
+    <t>ley educativa</t>
+  </si>
+  <si>
+    <t>ley aliándose con secesionistas</t>
+  </si>
+  <si>
+    <t>Ley de Vivienda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2553,8 +2762,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2860,19 +3070,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="102" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
+    <col min="5" max="5" width="102" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2882,14 +3095,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.00436918744221E+18</v>
       </c>
@@ -2900,13 +3116,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.00436075247039E+18</v>
       </c>
@@ -2917,13 +3136,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>826</v>
+      </c>
+      <c r="E3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.00435653517741E+18</v>
       </c>
@@ -2931,16 +3153,16 @@
         <v>113903919</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>827</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.00435440242825E+18</v>
       </c>
@@ -2948,16 +3170,16 @@
         <v>113903919</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.00435420957001E+18</v>
       </c>
@@ -2965,16 +3187,16 @@
         <v>1080013740</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.00434012909021E+18</v>
       </c>
@@ -2982,16 +3204,19 @@
         <v>1602818168</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.00433602189346E+18</v>
       </c>
@@ -2999,16 +3224,16 @@
         <v>250628279</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.00433576906082E+18</v>
       </c>
@@ -3019,13 +3244,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>826</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.0043173885847E+18</v>
       </c>
@@ -3033,16 +3261,16 @@
         <v>155549375</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.0042917753711E+18</v>
       </c>
@@ -3050,16 +3278,19 @@
         <v>56706417</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>833</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.00428769500114E+18</v>
       </c>
@@ -3067,16 +3298,19 @@
         <v>15881603</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>834</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.00427821815166E+18</v>
       </c>
@@ -3084,16 +3318,16 @@
         <v>115503011</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.0042752910978801E+18</v>
       </c>
@@ -3101,16 +3335,16 @@
         <v>63182397</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.00427495692087E+18</v>
       </c>
@@ -3118,16 +3352,19 @@
         <v>63182397</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>835</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.00427274147275E+18</v>
       </c>
@@ -3135,16 +3372,19 @@
         <v>270485630</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.00427180425128E+18</v>
       </c>
@@ -3152,16 +3392,19 @@
         <v>270485630</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>837</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.00426767128058E+18</v>
       </c>
@@ -3169,16 +3412,16 @@
         <v>94287024</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.00425134509487E+18</v>
       </c>
@@ -3186,16 +3429,19 @@
         <v>8.2418867740861594E+17</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>838</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.00424256061594E+18</v>
       </c>
@@ -3203,16 +3449,19 @@
         <v>24144885</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>839</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.00414288162662E+18</v>
       </c>
@@ -3220,16 +3469,19 @@
         <v>15648827</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>840</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.00412804625169E+18</v>
       </c>
@@ -3237,16 +3489,19 @@
         <v>284067234</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>841</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.00412125148759E+18</v>
       </c>
@@ -3254,16 +3509,19 @@
         <v>86032339</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>842</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.00410650878174E+18</v>
       </c>
@@ -3271,16 +3529,19 @@
         <v>15648827</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>843</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.00409605176949E+18</v>
       </c>
@@ -3288,16 +3549,19 @@
         <v>1602818168</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>844</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.00408014540837E+18</v>
       </c>
@@ -3305,16 +3569,19 @@
         <v>16883794</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>845</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.00407417738769E+18</v>
       </c>
@@ -3322,16 +3589,19 @@
         <v>1.00405556795294E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>846</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.0040691170522801E+18</v>
       </c>
@@ -3339,16 +3609,19 @@
         <v>286340051</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>847</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.00404102282815E+18</v>
       </c>
@@ -3356,16 +3629,19 @@
         <v>159535343</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>848</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.00404082044878E+18</v>
       </c>
@@ -3373,16 +3649,16 @@
         <v>267261606</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.0040376408767601E+18</v>
       </c>
@@ -3390,16 +3666,19 @@
         <v>22954354</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>849</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.00401200865888E+18</v>
       </c>
@@ -3407,16 +3686,16 @@
         <v>1081491518</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.00398861983555E+18</v>
       </c>
@@ -3424,16 +3703,16 @@
         <v>4856539643</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.00397545691427E+18</v>
       </c>
@@ -3441,16 +3720,16 @@
         <v>155549375</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.00397524427157E+18</v>
       </c>
@@ -3458,16 +3737,19 @@
         <v>64228688</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>850</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1.0039541555501E+18</v>
       </c>
@@ -3475,16 +3757,19 @@
         <v>131073596</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>851</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.00395328872165E+18</v>
       </c>
@@ -3492,16 +3777,16 @@
         <v>396641538</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.0039525249892E+18</v>
       </c>
@@ -3509,16 +3794,19 @@
         <v>94287024</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>826</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.00395100111054E+18</v>
       </c>
@@ -3526,16 +3814,19 @@
         <v>66106164</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>852</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.00394065984841E+18</v>
       </c>
@@ -3543,16 +3834,19 @@
         <v>94287024</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>826</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.0039239687163E+18</v>
       </c>
@@ -3560,16 +3854,19 @@
         <v>131073596</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>853</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.0039238008225999E+18</v>
       </c>
@@ -3577,16 +3874,19 @@
         <v>284067234</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>854</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.0039226350199601E+18</v>
       </c>
@@ -3594,16 +3894,19 @@
         <v>278423480</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>855</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.00391402613131E+18</v>
       </c>
@@ -3611,16 +3914,19 @@
         <v>94287024</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>856</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.00391054495553E+18</v>
       </c>
@@ -3628,16 +3934,19 @@
         <v>1108787233</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>857</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.00390653376224E+18</v>
       </c>
@@ -3645,16 +3954,16 @@
         <v>348720239</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.00389800604595E+18</v>
       </c>
@@ -3662,16 +3971,16 @@
         <v>495143924</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.00389151851457E+18</v>
       </c>
@@ -3679,16 +3988,19 @@
         <v>2403190684</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>858</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1.0038825771728E+18</v>
       </c>
@@ -3696,16 +4008,16 @@
         <v>9.7110917346641101E+17</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.00387825720752E+18</v>
       </c>
@@ -3713,16 +4025,19 @@
         <v>46860718</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>859</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1.00387706795457E+18</v>
       </c>
@@ -3730,16 +4045,16 @@
         <v>46860718</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1.0038749732561999E+18</v>
       </c>
@@ -3747,16 +4062,19 @@
         <v>46860718</v>
       </c>
       <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>860</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
         <v>137</v>
       </c>
-      <c r="D52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.0038709010945E+18</v>
       </c>
@@ -3764,16 +4082,19 @@
         <v>46860718</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>861</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1.00373858496327E+18</v>
       </c>
@@ -3781,16 +4102,16 @@
         <v>1609955406</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1.00368300025568E+18</v>
       </c>
@@ -3798,16 +4119,19 @@
         <v>159535343</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>848</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="F55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1.00367343774169E+18</v>
       </c>
@@ -3815,16 +4139,19 @@
         <v>935554142</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>862</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1.00365467016905E+18</v>
       </c>
@@ -3832,16 +4159,19 @@
         <v>94287024</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>826</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1.00365403953029E+18</v>
       </c>
@@ -3849,16 +4179,19 @@
         <v>94287024</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>826</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1.00365379275002E+18</v>
       </c>
@@ -3866,16 +4199,19 @@
         <v>94287024</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>826</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="F59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.00365186917098E+18</v>
       </c>
@@ -3883,16 +4219,19 @@
         <v>94287024</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>826</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1.00364986515342E+18</v>
       </c>
@@ -3900,16 +4239,19 @@
         <v>94287024</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>826</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1.00363234638023E+18</v>
       </c>
@@ -3917,16 +4259,19 @@
         <v>5962432</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>863</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="F62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1.00362995475886E+18</v>
       </c>
@@ -3934,16 +4279,19 @@
         <v>22954354</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>864</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="F63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1.00362524582626E+18</v>
       </c>
@@ -3951,16 +4299,16 @@
         <v>267261606</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="F64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1.00362357723129E+18</v>
       </c>
@@ -3968,16 +4316,16 @@
         <v>64062253</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="F65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1.00361638877749E+18</v>
       </c>
@@ -3985,16 +4333,16 @@
         <v>4010549685</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1.00361330296506E+18</v>
       </c>
@@ -4002,16 +4350,16 @@
         <v>210797551</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1.00361139897329E+18</v>
       </c>
@@ -4019,16 +4367,16 @@
         <v>3043784205</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="F68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.00360729652447E+18</v>
       </c>
@@ -4036,16 +4384,19 @@
         <v>18556155</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>865</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1.00359983618317E+18</v>
       </c>
@@ -4053,16 +4404,19 @@
         <v>159535343</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>848</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="F70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1.00358976763474E+18</v>
       </c>
@@ -4070,16 +4424,19 @@
         <v>94287024</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>866</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="F71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1.00358916405766E+18</v>
       </c>
@@ -4087,16 +4444,19 @@
         <v>94287024</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>867</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="F72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1.0035863210033E+18</v>
       </c>
@@ -4104,16 +4464,16 @@
         <v>94287024</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="F73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1.00358126691725E+18</v>
       </c>
@@ -4121,16 +4481,19 @@
         <v>94287024</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>868</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="F74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1.00357744759655E+18</v>
       </c>
@@ -4138,16 +4501,19 @@
         <v>9.9235036997088397E+17</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>869</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="F75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1.00357434394174E+18</v>
       </c>
@@ -4155,16 +4521,19 @@
         <v>8.2398886106388403E+17</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>870</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="F76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1.00357393530328E+18</v>
       </c>
@@ -4172,16 +4541,19 @@
         <v>28990306</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>871</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1.00356874293941E+18</v>
       </c>
@@ -4189,16 +4561,19 @@
         <v>159535343</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>848</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="F78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1.00356457589007E+18</v>
       </c>
@@ -4206,16 +4581,19 @@
         <v>8.2398886106388403E+17</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>872</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="F79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1.00356304265377E+18</v>
       </c>
@@ -4223,16 +4601,19 @@
         <v>1685636041</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>854</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1.00355857316995E+18</v>
       </c>
@@ -4240,16 +4621,16 @@
         <v>94287024</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="F81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1.00355782748134E+18</v>
       </c>
@@ -4257,16 +4638,16 @@
         <v>94287024</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="F82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1.00355584712393E+18</v>
       </c>
@@ -4274,16 +4655,19 @@
         <v>94287024</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>873</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1.003553105664E+18</v>
       </c>
@@ -4291,16 +4675,19 @@
         <v>307332508</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>870</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="F84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1.00354840992669E+18</v>
       </c>
@@ -4308,16 +4695,19 @@
         <v>90223916</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>874</v>
       </c>
       <c r="E85" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="F85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1.00354188502417E+18</v>
       </c>
@@ -4325,16 +4715,19 @@
         <v>31090827</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>875</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+      <c r="F86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1.0035292975655E+18</v>
       </c>
@@ -4342,16 +4735,16 @@
         <v>31090827</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
-      </c>
-      <c r="D87" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="F87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1.0035208502624399E+18</v>
       </c>
@@ -4359,16 +4752,16 @@
         <v>1863339302</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="F88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1.00351056331247E+18</v>
       </c>
@@ -4376,16 +4769,19 @@
         <v>66106164</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>232</v>
+        <v>876</v>
       </c>
       <c r="E89" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+      <c r="F89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1.0034052967426801E+18</v>
       </c>
@@ -4393,16 +4789,19 @@
         <v>51202795</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>235</v>
+        <v>877</v>
       </c>
       <c r="E90" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+      <c r="F90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1.00334433315048E+18</v>
       </c>
@@ -4410,16 +4809,19 @@
         <v>22954354</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>878</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+      <c r="F91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1.00332183238311E+18</v>
       </c>
@@ -4427,16 +4829,19 @@
         <v>2201467900</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>879</v>
       </c>
       <c r="E92" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="F92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1.00331052503871E+18</v>
       </c>
@@ -4444,16 +4849,16 @@
         <v>94287024</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.00330983601514E+18</v>
       </c>
@@ -4461,16 +4866,19 @@
         <v>94287024</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>244</v>
+        <v>880</v>
       </c>
       <c r="E94" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="F94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1.00330981025374E+18</v>
       </c>
@@ -4478,16 +4886,16 @@
         <v>4010549685</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
-      </c>
-      <c r="D95" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="F95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1.00330908833437E+18</v>
       </c>
@@ -4495,16 +4903,19 @@
         <v>94287024</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>881</v>
       </c>
       <c r="E96" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+      <c r="F96" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1.00329755014363E+18</v>
       </c>
@@ -4512,16 +4923,19 @@
         <v>1685636041</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>250</v>
+        <v>882</v>
       </c>
       <c r="E97" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="F97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1.0032940287655E+18</v>
       </c>
@@ -4529,16 +4943,16 @@
         <v>495143924</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+      <c r="F98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1.00326502212087E+18</v>
       </c>
@@ -4546,16 +4960,16 @@
         <v>64062253</v>
       </c>
       <c r="C99" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="E99" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="F99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1.00324743383547E+18</v>
       </c>
@@ -4563,16 +4977,16 @@
         <v>31090827</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
-      </c>
-      <c r="D100" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="F100" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1.00324526712107E+18</v>
       </c>
@@ -4580,16 +4994,16 @@
         <v>155549375</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="F101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1.0032204069401201E+18</v>
       </c>
@@ -4597,16 +5011,19 @@
         <v>27468857</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>883</v>
       </c>
       <c r="E102" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="F102" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1.00319709593802E+18</v>
       </c>
@@ -4614,16 +5031,19 @@
         <v>22954354</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D103" t="s">
-        <v>263</v>
+        <v>884</v>
       </c>
       <c r="E103" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="F103" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1.00319629010739E+18</v>
       </c>
@@ -4631,16 +5051,16 @@
         <v>297026240</v>
       </c>
       <c r="C104" t="s">
-        <v>265</v>
-      </c>
-      <c r="D104" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E104" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="F104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1.00319532916718E+18</v>
       </c>
@@ -4648,16 +5068,16 @@
         <v>8.8149698690571405E+17</v>
       </c>
       <c r="C105" t="s">
-        <v>268</v>
-      </c>
-      <c r="D105" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E105" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+      <c r="F105" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1.0031783650236401E+18</v>
       </c>
@@ -4665,16 +5085,16 @@
         <v>3447621017</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
-      </c>
-      <c r="D106" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E106" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+      <c r="F106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1.00307400974187E+18</v>
       </c>
@@ -4682,16 +5102,16 @@
         <v>9.9235036997088397E+17</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
-      </c>
-      <c r="D107" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="E107" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="F107" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1.00307388673136E+18</v>
       </c>
@@ -4699,16 +5119,19 @@
         <v>9.7643510895264102E+17</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>885</v>
       </c>
       <c r="E108" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+      <c r="F108" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1.00303184521745E+18</v>
       </c>
@@ -4716,16 +5139,19 @@
         <v>313264872</v>
       </c>
       <c r="C109" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>886</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="F109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1.0030268382041E+18</v>
       </c>
@@ -4733,16 +5159,19 @@
         <v>9.0352875384598502E+17</v>
       </c>
       <c r="C110" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D110" t="s">
-        <v>283</v>
+        <v>887</v>
       </c>
       <c r="E110" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="F110" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1.0030186766212E+18</v>
       </c>
@@ -4750,16 +5179,19 @@
         <v>9.0352875384598502E+17</v>
       </c>
       <c r="C111" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D111" t="s">
-        <v>285</v>
+        <v>888</v>
       </c>
       <c r="E111" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="F111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1.00301630602994E+18</v>
       </c>
@@ -4767,16 +5199,19 @@
         <v>471799951</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D112" t="s">
-        <v>288</v>
+        <v>854</v>
       </c>
       <c r="E112" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+      <c r="F112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1.00300558803139E+18</v>
       </c>
@@ -4784,16 +5219,19 @@
         <v>313264872</v>
       </c>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D113" t="s">
-        <v>290</v>
+        <v>889</v>
       </c>
       <c r="E113" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+      <c r="F113" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1.00300529518507E+18</v>
       </c>
@@ -4801,16 +5239,19 @@
         <v>9.5832292485070003E+17</v>
       </c>
       <c r="C114" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D114" t="s">
-        <v>293</v>
+        <v>890</v>
       </c>
       <c r="E114" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="F114" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1.0029880159191601E+18</v>
       </c>
@@ -4818,16 +5259,19 @@
         <v>84675409</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>296</v>
+        <v>826</v>
       </c>
       <c r="E115" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="F115" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1.0029857998336E+18</v>
       </c>
@@ -4835,16 +5279,16 @@
         <v>43316606</v>
       </c>
       <c r="C116" t="s">
-        <v>298</v>
-      </c>
-      <c r="D116" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="F116" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1.00297281492273E+18</v>
       </c>
@@ -4852,16 +5296,16 @@
         <v>8.2641823400606106E+17</v>
       </c>
       <c r="C117" t="s">
-        <v>301</v>
-      </c>
-      <c r="D117" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E117" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="F117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1.00296454046264E+18</v>
       </c>
@@ -4869,16 +5313,19 @@
         <v>2452048717</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>870</v>
       </c>
       <c r="E118" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="F118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1.00294389689531E+18</v>
       </c>
@@ -4886,16 +5333,19 @@
         <v>15648827</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>840</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+      <c r="F119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1.0029340427219599E+18</v>
       </c>
@@ -4903,16 +5353,19 @@
         <v>38536381</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D120" t="s">
-        <v>310</v>
+        <v>891</v>
       </c>
       <c r="E120" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="F120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1.0029088978862001E+18</v>
       </c>
@@ -4920,16 +5373,19 @@
         <v>15648827</v>
       </c>
       <c r="C121" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D121" t="s">
-        <v>312</v>
+        <v>891</v>
       </c>
       <c r="E121" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="F121" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1.00287890013595E+18</v>
       </c>
@@ -4937,16 +5393,19 @@
         <v>232687531</v>
       </c>
       <c r="C122" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D122" t="s">
-        <v>315</v>
+        <v>870</v>
       </c>
       <c r="E122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+      <c r="F122" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1.00287439732E+18</v>
       </c>
@@ -4954,16 +5413,16 @@
         <v>155549375</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+      <c r="F123" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1.00286295117341E+18</v>
       </c>
@@ -4971,16 +5430,16 @@
         <v>94287024</v>
       </c>
       <c r="C124" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" t="s">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="E124" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+      <c r="F124" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1.00286227599529E+18</v>
       </c>
@@ -4988,16 +5447,19 @@
         <v>84054978</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D125" t="s">
-        <v>322</v>
+        <v>870</v>
       </c>
       <c r="E125" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="F125" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1.00284601438927E+18</v>
       </c>
@@ -5005,16 +5467,19 @@
         <v>935554142</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>892</v>
       </c>
       <c r="E126" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="F126" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1.00284475574159E+18</v>
       </c>
@@ -5022,16 +5487,19 @@
         <v>222594289</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D127" t="s">
-        <v>327</v>
+        <v>893</v>
       </c>
       <c r="E127" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="F127" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1.00284345141368E+18</v>
       </c>
@@ -5039,16 +5507,19 @@
         <v>210797551</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D128" t="s">
-        <v>329</v>
+        <v>894</v>
       </c>
       <c r="E128" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="F128" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1.00284303522554E+18</v>
       </c>
@@ -5056,16 +5527,19 @@
         <v>210797551</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>894</v>
       </c>
       <c r="E129" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+      <c r="F129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1.00284216364072E+18</v>
       </c>
@@ -5073,16 +5547,16 @@
         <v>210797551</v>
       </c>
       <c r="C130" t="s">
-        <v>177</v>
-      </c>
-      <c r="D130" t="s">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="E130" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+      <c r="F130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1.00283757028648E+18</v>
       </c>
@@ -5090,16 +5564,19 @@
         <v>210797551</v>
       </c>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D131" t="s">
-        <v>335</v>
+        <v>870</v>
       </c>
       <c r="E131" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="F131" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1.00283339997385E+18</v>
       </c>
@@ -5107,16 +5584,16 @@
         <v>614398231</v>
       </c>
       <c r="C132" t="s">
-        <v>337</v>
-      </c>
-      <c r="D132" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E132" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="F132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1.00282340152074E+18</v>
       </c>
@@ -5124,16 +5601,19 @@
         <v>8.9953675693625306E+17</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D133" t="s">
-        <v>341</v>
+        <v>895</v>
       </c>
       <c r="E133" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+      <c r="F133" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1.00269019771541E+18</v>
       </c>
@@ -5141,16 +5621,19 @@
         <v>2570824727</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>870</v>
       </c>
       <c r="E134" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+      <c r="F134" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1.0026630705845E+18</v>
       </c>
@@ -5158,16 +5641,16 @@
         <v>15648827</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
-      </c>
-      <c r="D135" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="E135" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="F135" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1.00266292629608E+18</v>
       </c>
@@ -5175,16 +5658,16 @@
         <v>101549072</v>
       </c>
       <c r="C136" t="s">
-        <v>348</v>
-      </c>
-      <c r="D136" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E136" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+      <c r="F136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1.0026561501297201E+18</v>
       </c>
@@ -5192,16 +5675,16 @@
         <v>30186947</v>
       </c>
       <c r="C137" t="s">
-        <v>351</v>
-      </c>
-      <c r="D137" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E137" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="F137" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1.00264709076437E+18</v>
       </c>
@@ -5209,16 +5692,16 @@
         <v>2918716930</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
-      </c>
-      <c r="D138" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E138" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+      <c r="F138" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1.00263176898447E+18</v>
       </c>
@@ -5226,16 +5709,16 @@
         <v>307332508</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
-      </c>
-      <c r="D139" t="s">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="E139" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="F139" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1.00263056651943E+18</v>
       </c>
@@ -5243,16 +5726,16 @@
         <v>226141778</v>
       </c>
       <c r="C140" t="s">
-        <v>359</v>
-      </c>
-      <c r="D140" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E140" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+      <c r="F140" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1.00262055239639E+18</v>
       </c>
@@ -5260,16 +5743,16 @@
         <v>307332508</v>
       </c>
       <c r="C141" t="s">
-        <v>218</v>
-      </c>
-      <c r="D141" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+      <c r="F141" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1.00261972222619E+18</v>
       </c>
@@ -5277,16 +5760,16 @@
         <v>155939125</v>
       </c>
       <c r="C142" t="s">
-        <v>364</v>
-      </c>
-      <c r="D142" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E142" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+      <c r="F142" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1.0026148624497201E+18</v>
       </c>
@@ -5294,16 +5777,16 @@
         <v>8.2398886106388403E+17</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
-      </c>
-      <c r="D143" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="E143" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+      <c r="F143" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1.0026135004921E+18</v>
       </c>
@@ -5311,16 +5794,16 @@
         <v>155939125</v>
       </c>
       <c r="C144" t="s">
+        <v>358</v>
+      </c>
+      <c r="E144" t="s">
+        <v>363</v>
+      </c>
+      <c r="F144" t="s">
         <v>364</v>
       </c>
-      <c r="D144" t="s">
-        <v>369</v>
-      </c>
-      <c r="E144" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1.00261273606335E+18</v>
       </c>
@@ -5328,16 +5811,16 @@
         <v>155939125</v>
       </c>
       <c r="C145" t="s">
-        <v>364</v>
-      </c>
-      <c r="D145" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E145" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="F145" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1.0026033934273E+18</v>
       </c>
@@ -5345,16 +5828,16 @@
         <v>307332508</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
-      </c>
-      <c r="D146" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="E146" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+      <c r="F146" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1.00258862674263E+18</v>
       </c>
@@ -5362,16 +5845,16 @@
         <v>1602818168</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" t="s">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="F147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1.00255843142807E+18</v>
       </c>
@@ -5379,16 +5862,16 @@
         <v>3447621017</v>
       </c>
       <c r="C148" t="s">
-        <v>271</v>
-      </c>
-      <c r="D148" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="E148" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+      <c r="F148" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1.0025581169600399E+18</v>
       </c>
@@ -5396,16 +5879,16 @@
         <v>1.00250660552989E+18</v>
       </c>
       <c r="C149" t="s">
-        <v>379</v>
-      </c>
-      <c r="D149" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E149" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="F149" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1.00255287708742E+18</v>
       </c>
@@ -5413,16 +5896,16 @@
         <v>552554441</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
-      </c>
-      <c r="D150" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E150" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="F150" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1.00255247435449E+18</v>
       </c>
@@ -5430,16 +5913,16 @@
         <v>135609800</v>
       </c>
       <c r="C151" t="s">
-        <v>385</v>
-      </c>
-      <c r="D151" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E151" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="F151" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1.00254802093054E+18</v>
       </c>
@@ -5447,16 +5930,16 @@
         <v>877449722</v>
       </c>
       <c r="C152" t="s">
-        <v>388</v>
-      </c>
-      <c r="D152" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E152" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="F152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1.00254063202237E+18</v>
       </c>
@@ -5464,16 +5947,16 @@
         <v>106855064</v>
       </c>
       <c r="C153" t="s">
-        <v>391</v>
-      </c>
-      <c r="D153" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E153" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="F153" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1.00253926359698E+18</v>
       </c>
@@ -5481,16 +5964,16 @@
         <v>106750633</v>
       </c>
       <c r="C154" t="s">
-        <v>394</v>
-      </c>
-      <c r="D154" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E154" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="F154" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1.0025315226358001E+18</v>
       </c>
@@ -5498,16 +5981,16 @@
         <v>3363994391</v>
       </c>
       <c r="C155" t="s">
-        <v>397</v>
-      </c>
-      <c r="D155" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E155" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="F155" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1.00253059409654E+18</v>
       </c>
@@ -5515,16 +5998,16 @@
         <v>8.9953675693625306E+17</v>
       </c>
       <c r="C156" t="s">
-        <v>340</v>
-      </c>
-      <c r="D156" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="E156" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="F156" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1.0025210962504399E+18</v>
       </c>
@@ -5532,16 +6015,16 @@
         <v>18243066</v>
       </c>
       <c r="C157" t="s">
-        <v>402</v>
-      </c>
-      <c r="D157" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E157" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="F157" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1.0025086766226801E+18</v>
       </c>
@@ -5549,16 +6032,16 @@
         <v>155549375</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="F158" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1.00250074846939E+18</v>
       </c>
@@ -5566,16 +6049,16 @@
         <v>181539948</v>
       </c>
       <c r="C159" t="s">
-        <v>407</v>
-      </c>
-      <c r="D159" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E159" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="F159" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1.0024970879411E+18</v>
       </c>
@@ -5583,16 +6066,16 @@
         <v>9.8273062054256205E+17</v>
       </c>
       <c r="C160" t="s">
-        <v>410</v>
-      </c>
-      <c r="D160" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E160" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="F160" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1.00249288859546E+18</v>
       </c>
@@ -5600,16 +6083,16 @@
         <v>382763367</v>
       </c>
       <c r="C161" t="s">
-        <v>413</v>
-      </c>
-      <c r="D161" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E161" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+      <c r="F161" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1.0024919458502001E+18</v>
       </c>
@@ -5617,16 +6100,16 @@
         <v>33906991</v>
       </c>
       <c r="C162" t="s">
-        <v>416</v>
-      </c>
-      <c r="D162" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E162" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="F162" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1.0024885128291E+18</v>
       </c>
@@ -5634,16 +6117,16 @@
         <v>1086759320</v>
       </c>
       <c r="C163" t="s">
-        <v>419</v>
-      </c>
-      <c r="D163" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E163" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="F163" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1.00248841216163E+18</v>
       </c>
@@ -5651,16 +6134,16 @@
         <v>313264872</v>
       </c>
       <c r="C164" t="s">
-        <v>279</v>
-      </c>
-      <c r="D164" t="s">
-        <v>422</v>
+        <v>273</v>
       </c>
       <c r="E164" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+      <c r="F164" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1.00248066627619E+18</v>
       </c>
@@ -5668,16 +6151,16 @@
         <v>255188504</v>
       </c>
       <c r="C165" t="s">
-        <v>424</v>
-      </c>
-      <c r="D165" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E165" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="F165" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1.00247987949193E+18</v>
       </c>
@@ -5685,16 +6168,16 @@
         <v>155939125</v>
       </c>
       <c r="C166" t="s">
-        <v>364</v>
-      </c>
-      <c r="D166" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="E166" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+      <c r="F166" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1.00247853957534E+18</v>
       </c>
@@ -5702,16 +6185,16 @@
         <v>204334655</v>
       </c>
       <c r="C167" t="s">
-        <v>429</v>
-      </c>
-      <c r="D167" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E167" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+      <c r="F167" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1.00246981772151E+18</v>
       </c>
@@ -5719,16 +6202,16 @@
         <v>9.8777118260589696E+17</v>
       </c>
       <c r="C168" t="s">
-        <v>432</v>
-      </c>
-      <c r="D168" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E168" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+      <c r="F168" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1.00246405776774E+18</v>
       </c>
@@ -5736,16 +6219,16 @@
         <v>2416110639</v>
       </c>
       <c r="C169" t="s">
-        <v>435</v>
-      </c>
-      <c r="D169" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E169" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="F169" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1.00245751168813E+18</v>
       </c>
@@ -5753,16 +6236,16 @@
         <v>69254265</v>
       </c>
       <c r="C170" t="s">
-        <v>438</v>
-      </c>
-      <c r="D170" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E170" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+      <c r="F170" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1.0024415176409E+18</v>
       </c>
@@ -5770,16 +6253,16 @@
         <v>61472847</v>
       </c>
       <c r="C171" t="s">
-        <v>441</v>
-      </c>
-      <c r="D171" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E171" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+      <c r="F171" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1.00244055633582E+18</v>
       </c>
@@ -5787,16 +6270,16 @@
         <v>86572499</v>
       </c>
       <c r="C172" t="s">
-        <v>444</v>
-      </c>
-      <c r="D172" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E172" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+      <c r="F172" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1.00243963583699E+18</v>
       </c>
@@ -5804,16 +6287,16 @@
         <v>34644257</v>
       </c>
       <c r="C173" t="s">
-        <v>447</v>
-      </c>
-      <c r="D173" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E173" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="F173" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1.00233861427624E+18</v>
       </c>
@@ -5821,16 +6304,16 @@
         <v>83230724</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
-      </c>
-      <c r="D174" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E174" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+      <c r="F174" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1.00229424079219E+18</v>
       </c>
@@ -5838,16 +6321,16 @@
         <v>198590285</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
-      </c>
-      <c r="D175" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E175" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="F175" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1.00228717019813E+18</v>
       </c>
@@ -5855,16 +6338,16 @@
         <v>66106164</v>
       </c>
       <c r="C176" t="s">
-        <v>108</v>
-      </c>
-      <c r="D176" t="s">
-        <v>456</v>
+        <v>102</v>
       </c>
       <c r="E176" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="F176" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1.00228632566235E+18</v>
       </c>
@@ -5872,16 +6355,16 @@
         <v>148273229</v>
       </c>
       <c r="C177" t="s">
-        <v>458</v>
-      </c>
-      <c r="D177" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E177" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+      <c r="F177" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1.00228579475585E+18</v>
       </c>
@@ -5889,16 +6372,16 @@
         <v>86572499</v>
       </c>
       <c r="C178" t="s">
-        <v>444</v>
-      </c>
-      <c r="D178" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="E178" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+      <c r="F178" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1.0022808393030001E+18</v>
       </c>
@@ -5906,16 +6389,16 @@
         <v>198590285</v>
       </c>
       <c r="C179" t="s">
-        <v>453</v>
-      </c>
-      <c r="D179" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E179" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+      <c r="F179" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1.00227881100474E+18</v>
       </c>
@@ -5923,16 +6406,16 @@
         <v>8.6748685441271795E+17</v>
       </c>
       <c r="C180" t="s">
-        <v>465</v>
-      </c>
-      <c r="D180" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E180" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+      <c r="F180" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1.00227141073842E+18</v>
       </c>
@@ -5940,16 +6423,16 @@
         <v>224073436</v>
       </c>
       <c r="C181" t="s">
-        <v>468</v>
-      </c>
-      <c r="D181" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E181" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+      <c r="F181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1.0022477432708E+18</v>
       </c>
@@ -5957,16 +6440,16 @@
         <v>181539948</v>
       </c>
       <c r="C182" t="s">
-        <v>407</v>
-      </c>
-      <c r="D182" t="s">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="E182" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+      <c r="F182" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1.00223646169614E+18</v>
       </c>
@@ -5974,16 +6457,16 @@
         <v>1439500032</v>
       </c>
       <c r="C183" t="s">
-        <v>473</v>
-      </c>
-      <c r="D183" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E183" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+      <c r="F183" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1.00222812841518E+18</v>
       </c>
@@ -5991,16 +6474,16 @@
         <v>4872276351</v>
       </c>
       <c r="C184" t="s">
-        <v>476</v>
-      </c>
-      <c r="D184" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E184" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="F184" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1.00222177903587E+18</v>
       </c>
@@ -6008,16 +6491,16 @@
         <v>946507914</v>
       </c>
       <c r="C185" t="s">
-        <v>479</v>
-      </c>
-      <c r="D185" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E185" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="F185" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1.00221784816345E+18</v>
       </c>
@@ -6025,16 +6508,16 @@
         <v>50681655</v>
       </c>
       <c r="C186" t="s">
-        <v>482</v>
-      </c>
-      <c r="D186" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E186" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+      <c r="F186" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1.00220944540387E+18</v>
       </c>
@@ -6042,16 +6525,16 @@
         <v>15648827</v>
       </c>
       <c r="C187" t="s">
-        <v>58</v>
-      </c>
-      <c r="D187" t="s">
-        <v>485</v>
+        <v>52</v>
       </c>
       <c r="E187" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+      <c r="F187" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1.0021962197861199E+18</v>
       </c>
@@ -6059,16 +6542,16 @@
         <v>244557242</v>
       </c>
       <c r="C188" t="s">
-        <v>487</v>
-      </c>
-      <c r="D188" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E188" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="F188" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1.00219555682185E+18</v>
       </c>
@@ -6076,16 +6559,16 @@
         <v>62347123</v>
       </c>
       <c r="C189" t="s">
-        <v>490</v>
-      </c>
-      <c r="D189" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E189" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="F189" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1.00219465290319E+18</v>
       </c>
@@ -6093,16 +6576,16 @@
         <v>88695474</v>
       </c>
       <c r="C190" t="s">
-        <v>493</v>
-      </c>
-      <c r="D190" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E190" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+      <c r="F190" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1.0021878595063601E+18</v>
       </c>
@@ -6110,16 +6593,16 @@
         <v>1609955406</v>
       </c>
       <c r="C191" t="s">
-        <v>146</v>
-      </c>
-      <c r="D191" t="s">
-        <v>496</v>
+        <v>140</v>
       </c>
       <c r="E191" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="F191" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1.00217529242377E+18</v>
       </c>
@@ -6127,16 +6610,16 @@
         <v>243380988</v>
       </c>
       <c r="C192" t="s">
-        <v>498</v>
-      </c>
-      <c r="D192" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E192" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+      <c r="F192" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1.0021691415146801E+18</v>
       </c>
@@ -6144,16 +6627,16 @@
         <v>9.1485903858792397E+17</v>
       </c>
       <c r="C193" t="s">
-        <v>501</v>
-      </c>
-      <c r="D193" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E193" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+      <c r="F193" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1.00215978113675E+18</v>
       </c>
@@ -6161,16 +6644,16 @@
         <v>276912253</v>
       </c>
       <c r="C194" t="s">
-        <v>504</v>
-      </c>
-      <c r="D194" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E194" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+      <c r="F194" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1.00215035518513E+18</v>
       </c>
@@ -6178,16 +6661,16 @@
         <v>1080013740</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>507</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+      <c r="F195" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1.00214949801203E+18</v>
       </c>
@@ -6195,16 +6678,16 @@
         <v>155549375</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
-      </c>
-      <c r="D196" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="F196" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1.00214902541456E+18</v>
       </c>
@@ -6212,16 +6695,16 @@
         <v>88695474</v>
       </c>
       <c r="C197" t="s">
-        <v>493</v>
-      </c>
-      <c r="D197" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E197" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+      <c r="F197" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1.00213089803952E+18</v>
       </c>
@@ -6229,16 +6712,16 @@
         <v>70214437</v>
       </c>
       <c r="C198" t="s">
-        <v>513</v>
-      </c>
-      <c r="D198" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E198" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+      <c r="F198" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1.00213072680281E+18</v>
       </c>
@@ -6246,16 +6729,16 @@
         <v>4417621463</v>
       </c>
       <c r="C199" t="s">
-        <v>516</v>
-      </c>
-      <c r="D199" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E199" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+      <c r="F199" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1.00212428792965E+18</v>
       </c>
@@ -6263,16 +6746,16 @@
         <v>3434525997</v>
       </c>
       <c r="C200" t="s">
-        <v>519</v>
-      </c>
-      <c r="D200" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E200" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+      <c r="F200" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1.00212251316871E+18</v>
       </c>
@@ -6280,16 +6763,16 @@
         <v>8.0175513189312499E+17</v>
       </c>
       <c r="C201" t="s">
-        <v>522</v>
-      </c>
-      <c r="D201" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E201" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+      <c r="F201" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1.00211706400862E+18</v>
       </c>
@@ -6297,16 +6780,16 @@
         <v>210797551</v>
       </c>
       <c r="C202" t="s">
-        <v>177</v>
-      </c>
-      <c r="D202" t="s">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="E202" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+      <c r="F202" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1.00210129030496E+18</v>
       </c>
@@ -6314,16 +6797,16 @@
         <v>470939940</v>
       </c>
       <c r="C203" t="s">
-        <v>527</v>
-      </c>
-      <c r="D203" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E203" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+      <c r="F203" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1.00209828639483E+18</v>
       </c>
@@ -6331,16 +6814,16 @@
         <v>1058596766</v>
       </c>
       <c r="C204" t="s">
-        <v>530</v>
-      </c>
-      <c r="D204" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E204" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+      <c r="F204" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1.00209155232226E+18</v>
       </c>
@@ -6348,16 +6831,16 @@
         <v>1058596766</v>
       </c>
       <c r="C205" t="s">
-        <v>530</v>
-      </c>
-      <c r="D205" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E205" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+      <c r="F205" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1.0020861442832E+18</v>
       </c>
@@ -6365,16 +6848,16 @@
         <v>2403190684</v>
       </c>
       <c r="C206" t="s">
-        <v>131</v>
-      </c>
-      <c r="D206" t="s">
-        <v>535</v>
+        <v>125</v>
       </c>
       <c r="E206" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+      <c r="F206" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1.00208335452162E+18</v>
       </c>
@@ -6382,16 +6865,16 @@
         <v>1281456534</v>
       </c>
       <c r="C207" t="s">
-        <v>537</v>
-      </c>
-      <c r="D207" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E207" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+      <c r="F207" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1.00206779669037E+18</v>
       </c>
@@ -6399,16 +6882,16 @@
         <v>3447621017</v>
       </c>
       <c r="C208" t="s">
-        <v>271</v>
-      </c>
-      <c r="D208" t="s">
-        <v>540</v>
+        <v>265</v>
       </c>
       <c r="E208" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+      <c r="F208" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1.00200188140787E+18</v>
       </c>
@@ -6416,16 +6899,16 @@
         <v>51872143</v>
       </c>
       <c r="C209" t="s">
-        <v>542</v>
-      </c>
-      <c r="D209" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E209" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="F209" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1.00195486143135E+18</v>
       </c>
@@ -6433,16 +6916,16 @@
         <v>132212470</v>
       </c>
       <c r="C210" t="s">
-        <v>545</v>
-      </c>
-      <c r="D210" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E210" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+      <c r="F210" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1.00194921833505E+18</v>
       </c>
@@ -6450,16 +6933,16 @@
         <v>103688038</v>
       </c>
       <c r="C211" t="s">
-        <v>548</v>
-      </c>
-      <c r="D211" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E211" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+      <c r="F211" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1.00193286569167E+18</v>
       </c>
@@ -6467,16 +6950,16 @@
         <v>313264872</v>
       </c>
       <c r="C212" t="s">
-        <v>279</v>
-      </c>
-      <c r="D212" t="s">
-        <v>551</v>
+        <v>273</v>
       </c>
       <c r="E212" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+      <c r="F212" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1.00193228715034E+18</v>
       </c>
@@ -6484,16 +6967,16 @@
         <v>313264872</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
-      </c>
-      <c r="D213" t="s">
-        <v>553</v>
+        <v>273</v>
       </c>
       <c r="E213" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+      <c r="F213" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1.00192836730902E+18</v>
       </c>
@@ -6501,16 +6984,16 @@
         <v>160286818</v>
       </c>
       <c r="C214" t="s">
-        <v>555</v>
-      </c>
-      <c r="D214" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E214" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+      <c r="F214" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1.00192692843202E+18</v>
       </c>
@@ -6518,16 +7001,16 @@
         <v>46122290</v>
       </c>
       <c r="C215" t="s">
-        <v>558</v>
-      </c>
-      <c r="D215" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E215" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+      <c r="F215" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1.00192677037806E+18</v>
       </c>
@@ -6535,16 +7018,16 @@
         <v>84054978</v>
       </c>
       <c r="C216" t="s">
-        <v>321</v>
-      </c>
-      <c r="D216" t="s">
-        <v>561</v>
+        <v>315</v>
       </c>
       <c r="E216" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+      <c r="F216" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1.00192644151112E+18</v>
       </c>
@@ -6552,16 +7035,16 @@
         <v>313264872</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
-      </c>
-      <c r="D217" t="s">
-        <v>563</v>
+        <v>273</v>
       </c>
       <c r="E217" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+      <c r="F217" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1.00191952840464E+18</v>
       </c>
@@ -6569,16 +7052,16 @@
         <v>14236470</v>
       </c>
       <c r="C218" t="s">
-        <v>565</v>
-      </c>
-      <c r="D218" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E218" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+      <c r="F218" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1.00191559499064E+18</v>
       </c>
@@ -6586,16 +7069,16 @@
         <v>106855064</v>
       </c>
       <c r="C219" t="s">
-        <v>391</v>
-      </c>
-      <c r="D219" t="s">
-        <v>568</v>
+        <v>385</v>
       </c>
       <c r="E219" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+      <c r="F219" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1.00189374624448E+18</v>
       </c>
@@ -6603,16 +7086,16 @@
         <v>1080013740</v>
       </c>
       <c r="C220" t="s">
-        <v>16</v>
-      </c>
-      <c r="D220" t="s">
-        <v>570</v>
+        <v>13</v>
       </c>
       <c r="E220" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+      <c r="F220" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1.00187840493175E+18</v>
       </c>
@@ -6620,16 +7103,16 @@
         <v>33906991</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
-      </c>
-      <c r="D221" t="s">
-        <v>572</v>
+        <v>410</v>
       </c>
       <c r="E221" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+      <c r="F221" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1.0018656501832E+18</v>
       </c>
@@ -6637,16 +7120,16 @@
         <v>2715260202</v>
       </c>
       <c r="C222" t="s">
-        <v>574</v>
-      </c>
-      <c r="D222" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E222" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+      <c r="F222" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1.00186552434999E+18</v>
       </c>
@@ -6654,16 +7137,16 @@
         <v>374109855</v>
       </c>
       <c r="C223" t="s">
-        <v>577</v>
-      </c>
-      <c r="D223" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E223" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+      <c r="F223" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1.00186430305663E+18</v>
       </c>
@@ -6671,16 +7154,16 @@
         <v>738732132</v>
       </c>
       <c r="C224" t="s">
-        <v>580</v>
-      </c>
-      <c r="D224" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E224" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+        <v>575</v>
+      </c>
+      <c r="F224" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1.0018602429870799E+18</v>
       </c>
@@ -6688,16 +7171,16 @@
         <v>75619029</v>
       </c>
       <c r="C225" t="s">
-        <v>583</v>
-      </c>
-      <c r="D225" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E225" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+      <c r="F225" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1.00185662228362E+18</v>
       </c>
@@ -6707,14 +7190,14 @@
       <c r="C226" t="s">
         <v>5</v>
       </c>
-      <c r="D226" t="s">
-        <v>586</v>
-      </c>
       <c r="E226" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+      <c r="F226" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1.00184679220235E+18</v>
       </c>
@@ -6722,16 +7205,16 @@
         <v>8.4503161516842496E+17</v>
       </c>
       <c r="C227" t="s">
-        <v>588</v>
-      </c>
-      <c r="D227" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E227" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+      <c r="F227" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1.00183898465229E+18</v>
       </c>
@@ -6739,16 +7222,16 @@
         <v>243380988</v>
       </c>
       <c r="C228" t="s">
-        <v>498</v>
-      </c>
-      <c r="D228" t="s">
-        <v>591</v>
+        <v>492</v>
       </c>
       <c r="E228" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+      <c r="F228" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1.00183576556178E+18</v>
       </c>
@@ -6756,16 +7239,16 @@
         <v>3447621017</v>
       </c>
       <c r="C229" t="s">
-        <v>271</v>
-      </c>
-      <c r="D229" t="s">
-        <v>593</v>
+        <v>265</v>
       </c>
       <c r="E229" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+      <c r="F229" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1.00180805886619E+18</v>
       </c>
@@ -6773,16 +7256,16 @@
         <v>15648827</v>
       </c>
       <c r="C230" t="s">
-        <v>58</v>
-      </c>
-      <c r="D230" t="s">
-        <v>595</v>
+        <v>52</v>
       </c>
       <c r="E230" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+      <c r="F230" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1.00179790967386E+18</v>
       </c>
@@ -6790,16 +7273,16 @@
         <v>15648827</v>
       </c>
       <c r="C231" t="s">
-        <v>58</v>
-      </c>
-      <c r="D231" t="s">
-        <v>597</v>
+        <v>52</v>
       </c>
       <c r="E231" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+      <c r="F231" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1.00179667926639E+18</v>
       </c>
@@ -6807,16 +7290,16 @@
         <v>320725937</v>
       </c>
       <c r="C232" t="s">
-        <v>599</v>
-      </c>
-      <c r="D232" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E232" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="F232" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1.0017910709703E+18</v>
       </c>
@@ -6824,16 +7307,16 @@
         <v>14290960</v>
       </c>
       <c r="C233" t="s">
-        <v>602</v>
-      </c>
-      <c r="D233" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E233" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+      <c r="F233" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1.00178606368423E+18</v>
       </c>
@@ -6841,16 +7324,16 @@
         <v>155549375</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
-      </c>
-      <c r="D234" t="s">
-        <v>605</v>
+        <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+      <c r="F234" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1.0017826253532401E+18</v>
       </c>
@@ -6858,16 +7341,16 @@
         <v>28990306</v>
       </c>
       <c r="C235" t="s">
-        <v>202</v>
-      </c>
-      <c r="D235" t="s">
-        <v>607</v>
+        <v>196</v>
       </c>
       <c r="E235" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+        <v>601</v>
+      </c>
+      <c r="F235" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1.00177881568375E+18</v>
       </c>
@@ -6875,16 +7358,16 @@
         <v>320207668</v>
       </c>
       <c r="C236" t="s">
-        <v>609</v>
-      </c>
-      <c r="D236" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E236" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+      <c r="F236" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1.00177771954009E+18</v>
       </c>
@@ -6892,16 +7375,16 @@
         <v>8.2641823400606106E+17</v>
       </c>
       <c r="C237" t="s">
-        <v>301</v>
-      </c>
-      <c r="D237" t="s">
-        <v>612</v>
+        <v>295</v>
       </c>
       <c r="E237" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+      <c r="F237" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1.00177742720975E+18</v>
       </c>
@@ -6909,16 +7392,16 @@
         <v>320207668</v>
       </c>
       <c r="C238" t="s">
+        <v>603</v>
+      </c>
+      <c r="E238" t="s">
+        <v>608</v>
+      </c>
+      <c r="F238" t="s">
         <v>609</v>
       </c>
-      <c r="D238" t="s">
-        <v>614</v>
-      </c>
-      <c r="E238" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1.0017736433897201E+18</v>
       </c>
@@ -6926,16 +7409,16 @@
         <v>181911316</v>
       </c>
       <c r="C239" t="s">
-        <v>616</v>
-      </c>
-      <c r="D239" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E239" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+      <c r="F239" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1.0017675311017999E+18</v>
       </c>
@@ -6943,16 +7426,16 @@
         <v>337961915</v>
       </c>
       <c r="C240" t="s">
-        <v>619</v>
-      </c>
-      <c r="D240" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E240" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+      <c r="F240" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1.0017571125889999E+18</v>
       </c>
@@ -6960,16 +7443,16 @@
         <v>210797551</v>
       </c>
       <c r="C241" t="s">
-        <v>177</v>
-      </c>
-      <c r="D241" t="s">
-        <v>622</v>
+        <v>171</v>
       </c>
       <c r="E241" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+      <c r="F241" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1.00173173786775E+18</v>
       </c>
@@ -6977,16 +7460,16 @@
         <v>8.6748685441271795E+17</v>
       </c>
       <c r="C242" t="s">
-        <v>465</v>
-      </c>
-      <c r="D242" t="s">
-        <v>624</v>
+        <v>459</v>
       </c>
       <c r="E242" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+      <c r="F242" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1.00172393978839E+18</v>
       </c>
@@ -6994,16 +7477,16 @@
         <v>21744041</v>
       </c>
       <c r="C243" t="s">
-        <v>626</v>
-      </c>
-      <c r="D243" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E243" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+      <c r="F243" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1.00170488324917E+18</v>
       </c>
@@ -7011,16 +7494,16 @@
         <v>9.7654611592649101E+17</v>
       </c>
       <c r="C244" t="s">
-        <v>629</v>
-      </c>
-      <c r="D244" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E244" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+      <c r="F244" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1.00160105413449E+18</v>
       </c>
@@ -7028,16 +7511,16 @@
         <v>9.1806942461944602E+17</v>
       </c>
       <c r="C245" t="s">
-        <v>632</v>
-      </c>
-      <c r="D245" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E245" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+      <c r="F245" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1.0015900060189199E+18</v>
       </c>
@@ -7045,16 +7528,16 @@
         <v>1602818168</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
-      </c>
-      <c r="D246" t="s">
-        <v>635</v>
+        <v>16</v>
       </c>
       <c r="E246" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+      <c r="F246" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1.00158605810514E+18</v>
       </c>
@@ -7062,16 +7545,16 @@
         <v>609620553</v>
       </c>
       <c r="C247" t="s">
-        <v>637</v>
-      </c>
-      <c r="D247" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E247" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+      <c r="F247" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1.0015744142559E+18</v>
       </c>
@@ -7079,16 +7562,16 @@
         <v>979188312</v>
       </c>
       <c r="C248" t="s">
-        <v>640</v>
-      </c>
-      <c r="D248" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E248" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+      <c r="F248" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1.00157194920891E+18</v>
       </c>
@@ -7096,16 +7579,16 @@
         <v>9.1485903858792397E+17</v>
       </c>
       <c r="C249" t="s">
-        <v>501</v>
-      </c>
-      <c r="D249" t="s">
-        <v>643</v>
+        <v>495</v>
       </c>
       <c r="E249" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+        <v>637</v>
+      </c>
+      <c r="F249" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1.00156774956968E+18</v>
       </c>
@@ -7113,16 +7596,16 @@
         <v>4866293902</v>
       </c>
       <c r="C250" t="s">
-        <v>645</v>
-      </c>
-      <c r="D250" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E250" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+      <c r="F250" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1.00156093218147E+18</v>
       </c>
@@ -7130,16 +7613,16 @@
         <v>15648827</v>
       </c>
       <c r="C251" t="s">
-        <v>58</v>
-      </c>
-      <c r="D251" t="s">
-        <v>648</v>
+        <v>52</v>
       </c>
       <c r="E251" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+      <c r="F251" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1.00153951107834E+18</v>
       </c>
@@ -7147,16 +7630,16 @@
         <v>334030381</v>
       </c>
       <c r="C252" t="s">
-        <v>650</v>
-      </c>
-      <c r="D252" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E252" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+      <c r="F252" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1.0015389847728E+18</v>
       </c>
@@ -7164,16 +7647,16 @@
         <v>70657763</v>
       </c>
       <c r="C253" t="s">
-        <v>653</v>
-      </c>
-      <c r="D253" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E253" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+      <c r="F253" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1.00153646780041E+18</v>
       </c>
@@ -7181,16 +7664,16 @@
         <v>1567917614</v>
       </c>
       <c r="C254" t="s">
-        <v>656</v>
-      </c>
-      <c r="D254" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E254" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+      <c r="F254" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1.00151996425847E+18</v>
       </c>
@@ -7198,16 +7681,16 @@
         <v>14236470</v>
       </c>
       <c r="C255" t="s">
-        <v>565</v>
-      </c>
-      <c r="D255" t="s">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="E255" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+      <c r="F255" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1.00151236049272E+18</v>
       </c>
@@ -7215,16 +7698,16 @@
         <v>412373658</v>
       </c>
       <c r="C256" t="s">
-        <v>661</v>
-      </c>
-      <c r="D256" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E256" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+      <c r="F256" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1.00150490555795E+18</v>
       </c>
@@ -7232,16 +7715,16 @@
         <v>1685636041</v>
       </c>
       <c r="C257" t="s">
-        <v>209</v>
-      </c>
-      <c r="D257" t="s">
-        <v>664</v>
+        <v>203</v>
       </c>
       <c r="E257" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+      <c r="F257" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1.00150296663599E+18</v>
       </c>
@@ -7249,16 +7732,16 @@
         <v>3447621017</v>
       </c>
       <c r="C258" t="s">
-        <v>271</v>
-      </c>
-      <c r="D258" t="s">
-        <v>666</v>
+        <v>265</v>
       </c>
       <c r="E258" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+      <c r="F258" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1.00148990060736E+18</v>
       </c>
@@ -7266,16 +7749,16 @@
         <v>15648827</v>
       </c>
       <c r="C259" t="s">
-        <v>58</v>
-      </c>
-      <c r="D259" t="s">
-        <v>668</v>
+        <v>52</v>
       </c>
       <c r="E259" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+      <c r="F259" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1.00148985239384E+18</v>
       </c>
@@ -7283,16 +7766,16 @@
         <v>877449722</v>
       </c>
       <c r="C260" t="s">
-        <v>388</v>
-      </c>
-      <c r="D260" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="E260" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+      <c r="F260" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1.00148240959712E+18</v>
       </c>
@@ -7300,16 +7783,16 @@
         <v>484178441</v>
       </c>
       <c r="C261" t="s">
-        <v>672</v>
-      </c>
-      <c r="D261" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E261" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+      <c r="F261" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1.00147831804517E+18</v>
       </c>
@@ -7317,16 +7800,16 @@
         <v>5962432</v>
       </c>
       <c r="C262" t="s">
-        <v>164</v>
-      </c>
-      <c r="D262" t="s">
-        <v>675</v>
+        <v>158</v>
       </c>
       <c r="E262" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+      <c r="F262" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1.00147538592049E+18</v>
       </c>
@@ -7334,16 +7817,16 @@
         <v>7.8768982498783603E+17</v>
       </c>
       <c r="C263" t="s">
-        <v>677</v>
-      </c>
-      <c r="D263" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E263" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="F263" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1.00145188971469E+18</v>
       </c>
@@ -7351,16 +7834,16 @@
         <v>243380988</v>
       </c>
       <c r="C264" t="s">
-        <v>498</v>
-      </c>
-      <c r="D264" t="s">
-        <v>680</v>
+        <v>492</v>
       </c>
       <c r="E264" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+      <c r="F264" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1.0014315768933199E+18</v>
       </c>
@@ -7368,16 +7851,16 @@
         <v>70214437</v>
       </c>
       <c r="C265" t="s">
-        <v>513</v>
-      </c>
-      <c r="D265" t="s">
-        <v>682</v>
+        <v>507</v>
       </c>
       <c r="E265" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+      <c r="F265" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1.00142831801563E+18</v>
       </c>
@@ -7385,16 +7868,16 @@
         <v>2833597823</v>
       </c>
       <c r="C266" t="s">
-        <v>684</v>
-      </c>
-      <c r="D266" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E266" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+      <c r="F266" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1.00142503105291E+18</v>
       </c>
@@ -7402,16 +7885,16 @@
         <v>155549375</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
-      </c>
-      <c r="D267" t="s">
-        <v>687</v>
+        <v>22</v>
       </c>
       <c r="E267" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+        <v>681</v>
+      </c>
+      <c r="F267" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1.00142317442315E+18</v>
       </c>
@@ -7419,16 +7902,16 @@
         <v>155549375</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
-      </c>
-      <c r="D268" t="s">
-        <v>689</v>
+        <v>22</v>
       </c>
       <c r="E268" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+      <c r="F268" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1.00142024193781E+18</v>
       </c>
@@ -7436,16 +7919,16 @@
         <v>7.26033477188096E+17</v>
       </c>
       <c r="C269" t="s">
-        <v>691</v>
-      </c>
-      <c r="D269" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E269" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+      <c r="F269" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1.00141505179278E+18</v>
       </c>
@@ -7453,16 +7936,16 @@
         <v>84054978</v>
       </c>
       <c r="C270" t="s">
-        <v>321</v>
-      </c>
-      <c r="D270" t="s">
-        <v>694</v>
+        <v>315</v>
       </c>
       <c r="E270" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+      <c r="F270" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1.00140851304477E+18</v>
       </c>
@@ -7470,16 +7953,16 @@
         <v>94287024</v>
       </c>
       <c r="C271" t="s">
-        <v>49</v>
-      </c>
-      <c r="D271" t="s">
-        <v>696</v>
+        <v>43</v>
       </c>
       <c r="E271" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+      <c r="F271" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1.0013950457429199E+18</v>
       </c>
@@ -7487,16 +7970,16 @@
         <v>171962022</v>
       </c>
       <c r="C272" t="s">
-        <v>698</v>
-      </c>
-      <c r="D272" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E272" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+      <c r="F272" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1.00139409655089E+18</v>
       </c>
@@ -7504,16 +7987,16 @@
         <v>722709846</v>
       </c>
       <c r="C273" t="s">
-        <v>701</v>
-      </c>
-      <c r="D273" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E273" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+      <c r="F273" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1.00139055386142E+18</v>
       </c>
@@ -7521,16 +8004,16 @@
         <v>332930319</v>
       </c>
       <c r="C274" t="s">
-        <v>704</v>
-      </c>
-      <c r="D274" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E274" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+      <c r="F274" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1.0013890239512399E+18</v>
       </c>
@@ -7538,16 +8021,16 @@
         <v>7636792</v>
       </c>
       <c r="C275" t="s">
-        <v>707</v>
-      </c>
-      <c r="D275" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E275" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+      <c r="F275" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1.00138375435779E+18</v>
       </c>
@@ -7555,16 +8038,16 @@
         <v>307806163</v>
       </c>
       <c r="C276" t="s">
-        <v>710</v>
-      </c>
-      <c r="D276" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E276" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+      <c r="F276" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1.0013703525331E+18</v>
       </c>
@@ -7572,16 +8055,16 @@
         <v>94287024</v>
       </c>
       <c r="C277" t="s">
-        <v>49</v>
-      </c>
-      <c r="D277" t="s">
-        <v>713</v>
+        <v>43</v>
       </c>
       <c r="E277" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+      <c r="F277" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1.00136886546769E+18</v>
       </c>
@@ -7589,16 +8072,16 @@
         <v>94287024</v>
       </c>
       <c r="C278" t="s">
-        <v>49</v>
-      </c>
-      <c r="D278" t="s">
-        <v>715</v>
+        <v>43</v>
       </c>
       <c r="E278" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+      <c r="F278" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1.00136509258221E+18</v>
       </c>
@@ -7606,16 +8089,16 @@
         <v>3363994391</v>
       </c>
       <c r="C279" t="s">
-        <v>397</v>
-      </c>
-      <c r="D279" t="s">
-        <v>717</v>
+        <v>391</v>
       </c>
       <c r="E279" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+      <c r="F279" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1.0013606944979E+18</v>
       </c>
@@ -7623,16 +8106,16 @@
         <v>15881603</v>
       </c>
       <c r="C280" t="s">
-        <v>33</v>
-      </c>
-      <c r="D280" t="s">
-        <v>719</v>
+        <v>27</v>
       </c>
       <c r="E280" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="F280" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1.0013513320397199E+18</v>
       </c>
@@ -7640,16 +8123,16 @@
         <v>34644257</v>
       </c>
       <c r="C281" t="s">
-        <v>447</v>
-      </c>
-      <c r="D281" t="s">
-        <v>721</v>
+        <v>441</v>
       </c>
       <c r="E281" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+      <c r="F281" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1.00134691598289E+18</v>
       </c>
@@ -7657,16 +8140,16 @@
         <v>94287024</v>
       </c>
       <c r="C282" t="s">
-        <v>49</v>
-      </c>
-      <c r="D282" t="s">
-        <v>723</v>
+        <v>43</v>
       </c>
       <c r="E282" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+      <c r="F282" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1.0013459955930801E+18</v>
       </c>
@@ -7674,16 +8157,16 @@
         <v>94287024</v>
       </c>
       <c r="C283" t="s">
-        <v>49</v>
-      </c>
-      <c r="D283" t="s">
-        <v>725</v>
+        <v>43</v>
       </c>
       <c r="E283" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+      <c r="F283" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1.00134251578461E+18</v>
       </c>
@@ -7691,16 +8174,16 @@
         <v>9.7654611592649101E+17</v>
       </c>
       <c r="C284" t="s">
-        <v>629</v>
-      </c>
-      <c r="D284" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="E284" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+      <c r="F284" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1.00130715638002E+18</v>
       </c>
@@ -7708,16 +8191,16 @@
         <v>935290314</v>
       </c>
       <c r="C285" t="s">
-        <v>729</v>
-      </c>
-      <c r="D285" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E285" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+      <c r="F285" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1.00121496809055E+18</v>
       </c>
@@ -7725,16 +8208,16 @@
         <v>17919299</v>
       </c>
       <c r="C286" t="s">
-        <v>732</v>
-      </c>
-      <c r="D286" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E286" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+        <v>727</v>
+      </c>
+      <c r="F286" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1.0012074116827599E+18</v>
       </c>
@@ -7742,16 +8225,16 @@
         <v>1148614819</v>
       </c>
       <c r="C287" t="s">
-        <v>735</v>
-      </c>
-      <c r="D287" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E287" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+      <c r="F287" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1.00120472726528E+18</v>
       </c>
@@ -7759,16 +8242,16 @@
         <v>946507914</v>
       </c>
       <c r="C288" t="s">
-        <v>479</v>
-      </c>
-      <c r="D288" t="s">
-        <v>738</v>
+        <v>473</v>
       </c>
       <c r="E288" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+      <c r="F288" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1.00120388588793E+18</v>
       </c>
@@ -7776,16 +8259,16 @@
         <v>946507914</v>
       </c>
       <c r="C289" t="s">
-        <v>479</v>
-      </c>
-      <c r="D289" t="s">
-        <v>740</v>
+        <v>473</v>
       </c>
       <c r="E289" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+      <c r="F289" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1.00119855736441E+18</v>
       </c>
@@ -7793,16 +8276,16 @@
         <v>1829290346</v>
       </c>
       <c r="C290" t="s">
-        <v>742</v>
-      </c>
-      <c r="D290" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E290" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="F290" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1.00118888133995E+18</v>
       </c>
@@ -7810,16 +8293,16 @@
         <v>22954354</v>
       </c>
       <c r="C291" t="s">
-        <v>86</v>
-      </c>
-      <c r="D291" t="s">
-        <v>745</v>
+        <v>80</v>
       </c>
       <c r="E291" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+      <c r="F291" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1.00117603342349E+18</v>
       </c>
@@ -7827,16 +8310,16 @@
         <v>84675409</v>
       </c>
       <c r="C292" t="s">
-        <v>295</v>
-      </c>
-      <c r="D292" t="s">
-        <v>747</v>
+        <v>289</v>
       </c>
       <c r="E292" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+      <c r="F292" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1.00117535705001E+18</v>
       </c>
@@ -7844,16 +8327,16 @@
         <v>3010345946</v>
       </c>
       <c r="C293" t="s">
-        <v>749</v>
-      </c>
-      <c r="D293" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E293" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+      <c r="F293" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1.0011737711752399E+18</v>
       </c>
@@ -7861,16 +8344,16 @@
         <v>22954354</v>
       </c>
       <c r="C294" t="s">
-        <v>86</v>
-      </c>
-      <c r="D294" t="s">
-        <v>752</v>
+        <v>80</v>
       </c>
       <c r="E294" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+      <c r="F294" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1.00115670874662E+18</v>
       </c>
@@ -7878,16 +8361,16 @@
         <v>243380988</v>
       </c>
       <c r="C295" t="s">
-        <v>498</v>
-      </c>
-      <c r="D295" t="s">
-        <v>754</v>
+        <v>492</v>
       </c>
       <c r="E295" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+      <c r="F295" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1.00115109300139E+18</v>
       </c>
@@ -7895,16 +8378,16 @@
         <v>8.2641823400606106E+17</v>
       </c>
       <c r="C296" t="s">
-        <v>301</v>
-      </c>
-      <c r="D296" t="s">
-        <v>756</v>
+        <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+      <c r="F296" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1.00111569255127E+18</v>
       </c>
@@ -7912,16 +8395,16 @@
         <v>94287024</v>
       </c>
       <c r="C297" t="s">
-        <v>49</v>
-      </c>
-      <c r="D297" t="s">
-        <v>758</v>
+        <v>43</v>
       </c>
       <c r="E297" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+      <c r="F297" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1.00111052408238E+18</v>
       </c>
@@ -7929,16 +8412,16 @@
         <v>2262133697</v>
       </c>
       <c r="C298" t="s">
-        <v>760</v>
-      </c>
-      <c r="D298" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E298" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+      <c r="F298" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1.0011103114521999E+18</v>
       </c>
@@ -7946,16 +8429,16 @@
         <v>94287024</v>
       </c>
       <c r="C299" t="s">
-        <v>49</v>
-      </c>
-      <c r="D299" t="s">
-        <v>763</v>
+        <v>43</v>
       </c>
       <c r="E299" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+        <v>757</v>
+      </c>
+      <c r="F299" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1.00110937934781E+18</v>
       </c>
@@ -7963,16 +8446,16 @@
         <v>9.9865163293309696E+17</v>
       </c>
       <c r="C300" t="s">
-        <v>765</v>
-      </c>
-      <c r="D300" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E300" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+      <c r="F300" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1.00110556328195E+18</v>
       </c>
@@ -7980,16 +8463,16 @@
         <v>51806144</v>
       </c>
       <c r="C301" t="s">
-        <v>768</v>
-      </c>
-      <c r="D301" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E301" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+      <c r="F301" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1.00109379442991E+18</v>
       </c>
@@ -7997,16 +8480,16 @@
         <v>180446678</v>
       </c>
       <c r="C302" t="s">
-        <v>771</v>
-      </c>
-      <c r="D302" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E302" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+      <c r="F302" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1.00109169778114E+18</v>
       </c>
@@ -8014,16 +8497,16 @@
         <v>47350310</v>
       </c>
       <c r="C303" t="s">
-        <v>774</v>
-      </c>
-      <c r="D303" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E303" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+      <c r="F303" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1.00108516006499E+18</v>
       </c>
@@ -8031,16 +8514,16 @@
         <v>4872276351</v>
       </c>
       <c r="C304" t="s">
-        <v>476</v>
-      </c>
-      <c r="D304" t="s">
-        <v>777</v>
+        <v>470</v>
       </c>
       <c r="E304" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+        <v>771</v>
+      </c>
+      <c r="F304" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1.00107410406843E+18</v>
       </c>
@@ -8048,16 +8531,16 @@
         <v>155549375</v>
       </c>
       <c r="C305" t="s">
-        <v>27</v>
-      </c>
-      <c r="D305" t="s">
-        <v>779</v>
+        <v>22</v>
       </c>
       <c r="E305" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+        <v>773</v>
+      </c>
+      <c r="F305" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1.00107299376901E+18</v>
       </c>
@@ -8065,16 +8548,16 @@
         <v>4891323641</v>
       </c>
       <c r="C306" t="s">
-        <v>781</v>
-      </c>
-      <c r="D306" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E306" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+        <v>776</v>
+      </c>
+      <c r="F306" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1.00107274872945E+18</v>
       </c>
@@ -8082,16 +8565,16 @@
         <v>94287024</v>
       </c>
       <c r="C307" t="s">
-        <v>49</v>
-      </c>
-      <c r="D307" t="s">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="E307" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+        <v>778</v>
+      </c>
+      <c r="F307" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1.00107237428288E+18</v>
       </c>
@@ -8099,16 +8582,16 @@
         <v>94287024</v>
       </c>
       <c r="C308" t="s">
-        <v>49</v>
-      </c>
-      <c r="D308" t="s">
-        <v>786</v>
+        <v>43</v>
       </c>
       <c r="E308" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+        <v>780</v>
+      </c>
+      <c r="F308" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1.00107198909893E+18</v>
       </c>
@@ -8116,16 +8599,16 @@
         <v>94287024</v>
       </c>
       <c r="C309" t="s">
-        <v>49</v>
-      </c>
-      <c r="D309" t="s">
-        <v>788</v>
+        <v>43</v>
       </c>
       <c r="E309" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+        <v>782</v>
+      </c>
+      <c r="F309" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1.00106379588269E+18</v>
       </c>
@@ -8133,16 +8616,16 @@
         <v>15881603</v>
       </c>
       <c r="C310" t="s">
-        <v>33</v>
-      </c>
-      <c r="D310" t="s">
-        <v>719</v>
+        <v>27</v>
       </c>
       <c r="E310" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="F310" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1.0010595591029199E+18</v>
       </c>
@@ -8150,16 +8633,16 @@
         <v>9.2508256810144896E+17</v>
       </c>
       <c r="C311" t="s">
-        <v>791</v>
-      </c>
-      <c r="D311" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="E311" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+      <c r="F311" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1.00105600143975E+18</v>
       </c>
@@ -8169,14 +8652,14 @@
       <c r="C312" t="s">
         <v>5</v>
       </c>
-      <c r="D312" t="s">
-        <v>794</v>
-      </c>
       <c r="E312" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+      <c r="F312" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1.00105274590493E+18</v>
       </c>
@@ -8184,16 +8667,16 @@
         <v>210797551</v>
       </c>
       <c r="C313" t="s">
-        <v>177</v>
-      </c>
-      <c r="D313" t="s">
-        <v>796</v>
+        <v>171</v>
       </c>
       <c r="E313" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+        <v>790</v>
+      </c>
+      <c r="F313" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1.00102154126464E+18</v>
       </c>
@@ -8201,16 +8684,16 @@
         <v>88695474</v>
       </c>
       <c r="C314" t="s">
-        <v>493</v>
-      </c>
-      <c r="D314" t="s">
-        <v>798</v>
+        <v>487</v>
       </c>
       <c r="E314" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+        <v>792</v>
+      </c>
+      <c r="F314" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1.00101892036562E+18</v>
       </c>
@@ -8218,16 +8701,16 @@
         <v>94287024</v>
       </c>
       <c r="C315" t="s">
-        <v>49</v>
-      </c>
-      <c r="D315" t="s">
-        <v>800</v>
+        <v>43</v>
       </c>
       <c r="E315" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+        <v>794</v>
+      </c>
+      <c r="F315" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1.00101852938944E+18</v>
       </c>
@@ -8235,16 +8718,16 @@
         <v>94287024</v>
       </c>
       <c r="C316" t="s">
-        <v>49</v>
-      </c>
-      <c r="D316" t="s">
-        <v>802</v>
+        <v>43</v>
       </c>
       <c r="E316" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+        <v>796</v>
+      </c>
+      <c r="F316" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1.00101808685675E+18</v>
       </c>
@@ -8252,16 +8735,16 @@
         <v>94287024</v>
       </c>
       <c r="C317" t="s">
-        <v>49</v>
-      </c>
-      <c r="D317" t="s">
-        <v>804</v>
+        <v>43</v>
       </c>
       <c r="E317" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+        <v>798</v>
+      </c>
+      <c r="F317" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1.00101723220446E+18</v>
       </c>
@@ -8269,16 +8752,16 @@
         <v>313264872</v>
       </c>
       <c r="C318" t="s">
-        <v>279</v>
-      </c>
-      <c r="D318" t="s">
-        <v>806</v>
+        <v>273</v>
       </c>
       <c r="E318" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="F318" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1.00101552474944E+18</v>
       </c>
@@ -8286,16 +8769,16 @@
         <v>53228454</v>
       </c>
       <c r="C319" t="s">
-        <v>808</v>
-      </c>
-      <c r="D319" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="E319" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+        <v>803</v>
+      </c>
+      <c r="F319" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1.00101433509383E+18</v>
       </c>
@@ -8303,16 +8786,16 @@
         <v>53228454</v>
       </c>
       <c r="C320" t="s">
-        <v>808</v>
-      </c>
-      <c r="D320" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="E320" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+      <c r="F320" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1.00101295487E+18</v>
       </c>
@@ -8320,16 +8803,16 @@
         <v>53228454</v>
       </c>
       <c r="C321" t="s">
+        <v>802</v>
+      </c>
+      <c r="E321" t="s">
+        <v>807</v>
+      </c>
+      <c r="F321" t="s">
         <v>808</v>
       </c>
-      <c r="D321" t="s">
-        <v>813</v>
-      </c>
-      <c r="E321" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1.00100748847974E+18</v>
       </c>
@@ -8337,16 +8820,16 @@
         <v>46122290</v>
       </c>
       <c r="C322" t="s">
-        <v>558</v>
-      </c>
-      <c r="D322" t="s">
-        <v>815</v>
+        <v>552</v>
       </c>
       <c r="E322" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+      <c r="F322" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1.00099633655944E+18</v>
       </c>
@@ -8354,16 +8837,16 @@
         <v>91528386</v>
       </c>
       <c r="C323" t="s">
-        <v>817</v>
-      </c>
-      <c r="D323" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E323" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+      <c r="F323" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1.00099413976749E+18</v>
       </c>
@@ -8371,16 +8854,16 @@
         <v>62576914</v>
       </c>
       <c r="C324" t="s">
-        <v>820</v>
-      </c>
-      <c r="D324" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E324" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F324" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1.00099087701416E+18</v>
       </c>
@@ -8388,16 +8871,16 @@
         <v>7.6183104007591501E+17</v>
       </c>
       <c r="C325" t="s">
-        <v>823</v>
-      </c>
-      <c r="D325" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E325" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+        <v>818</v>
+      </c>
+      <c r="F325" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1.00098912176934E+18</v>
       </c>
@@ -8405,17 +8888,18 @@
         <v>26979010</v>
       </c>
       <c r="C326" t="s">
-        <v>826</v>
-      </c>
-      <c r="D326" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E326" t="s">
-        <v>828</v>
+        <v>821</v>
+      </c>
+      <c r="F326" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/inputText/corpus_tentative/other/twitter.xlsx
+++ b/resources/inputText/corpus_tentative/other/twitter.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="945">
   <si>
     <t>id</t>
   </si>
@@ -2719,6 +2719,153 @@
   </si>
   <si>
     <t>Ley de Vivienda</t>
+  </si>
+  <si>
+    <t>Ley Mordaza,Ley de Violencia de Género efectiva</t>
+  </si>
+  <si>
+    <t>ley embudo/mordaza</t>
+  </si>
+  <si>
+    <t>LEY electoral</t>
+  </si>
+  <si>
+    <t>ley mordaza</t>
+  </si>
+  <si>
+    <t>LEY ELECTORAL</t>
+  </si>
+  <si>
+    <t>ley que permite juzgar a los presuntos agresores sexuales</t>
+  </si>
+  <si>
+    <t>ley dhont</t>
+  </si>
+  <si>
+    <t>ley d'Hont</t>
+  </si>
+  <si>
+    <t>Ley de Secretos Empresariales</t>
+  </si>
+  <si>
+    <t>Ley Seca</t>
+  </si>
+  <si>
+    <t>Ley sanitaria de abril de 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ley electoral </t>
+  </si>
+  <si>
+    <t>Ley de Medidas Administrativas</t>
+  </si>
+  <si>
+    <t>ley del contrato de transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ley comercia, ley federal</t>
+  </si>
+  <si>
+    <t>ley de Ohm</t>
+  </si>
+  <si>
+    <t>ley mientras Sánchez</t>
+  </si>
+  <si>
+    <t>Ley Fintech</t>
+  </si>
+  <si>
+    <t>Ley de Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Ley de Protección Datos</t>
+  </si>
+  <si>
+    <t>#LeyMordaza</t>
+  </si>
+  <si>
+    <t>Ley de Función Pública, Ley General de Salud Pública</t>
+  </si>
+  <si>
+    <t>Ley de Carreteras</t>
+  </si>
+  <si>
+    <t>Ley de Memoria Histórica</t>
+  </si>
+  <si>
+    <t>Ley del Gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ley de gravedad </t>
+  </si>
+  <si>
+    <t>ley Electoral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ley 13/2015 </t>
+  </si>
+  <si>
+    <t>Ley de financiación local</t>
+  </si>
+  <si>
+    <t>ley de Murphy</t>
+  </si>
+  <si>
+    <t>Ley de Espectáculos de Galicia</t>
+  </si>
+  <si>
+    <t>ley de movilidad</t>
+  </si>
+  <si>
+    <t>Ley de protección a los denunciantes de corrupción</t>
+  </si>
+  <si>
+    <t>ley de cookies</t>
+  </si>
+  <si>
+    <t>Ley de Godwin</t>
+  </si>
+  <si>
+    <t>ley del sector</t>
+  </si>
+  <si>
+    <t>ley orgánica por vía de urgencia</t>
+  </si>
+  <si>
+    <t>Ley del Suelo</t>
+  </si>
+  <si>
+    <t>Ley de Presupuestos incentivará</t>
+  </si>
+  <si>
+    <t>ley de conservación</t>
+  </si>
+  <si>
+    <t>Ley de Seguridad Ciudadana</t>
+  </si>
+  <si>
+    <t>ley española</t>
+  </si>
+  <si>
+    <t>Ley Mordaza, L.O. 4/2015, Ley Orgánica, Artículo 81.2 CE</t>
+  </si>
+  <si>
+    <t>ley abordadas</t>
+  </si>
+  <si>
+    <t>Ley Mordaza,Ley Sinde</t>
+  </si>
+  <si>
+    <t>ley de datos</t>
+  </si>
+  <si>
+    <t>ley para proteger a los denunciantes de casos de corrupción</t>
+  </si>
+  <si>
+    <t>ley anticorrupción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ley de protección de datos </t>
   </si>
 </sst>
 </file>
@@ -3072,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="C313" workbookViewId="0">
+      <selection activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5643,6 +5790,9 @@
       <c r="C135" t="s">
         <v>52</v>
       </c>
+      <c r="D135" t="s">
+        <v>840</v>
+      </c>
       <c r="E135" t="s">
         <v>340</v>
       </c>
@@ -5660,6 +5810,9 @@
       <c r="C136" t="s">
         <v>342</v>
       </c>
+      <c r="D136" t="s">
+        <v>896</v>
+      </c>
       <c r="E136" t="s">
         <v>343</v>
       </c>
@@ -5677,6 +5830,9 @@
       <c r="C137" t="s">
         <v>345</v>
       </c>
+      <c r="D137" t="s">
+        <v>897</v>
+      </c>
       <c r="E137" t="s">
         <v>346</v>
       </c>
@@ -5711,6 +5867,9 @@
       <c r="C139" t="s">
         <v>212</v>
       </c>
+      <c r="D139" t="s">
+        <v>877</v>
+      </c>
       <c r="E139" t="s">
         <v>351</v>
       </c>
@@ -5762,6 +5921,9 @@
       <c r="C142" t="s">
         <v>358</v>
       </c>
+      <c r="D142" t="s">
+        <v>870</v>
+      </c>
       <c r="E142" t="s">
         <v>359</v>
       </c>
@@ -5779,6 +5941,9 @@
       <c r="C143" t="s">
         <v>193</v>
       </c>
+      <c r="D143" t="s">
+        <v>898</v>
+      </c>
       <c r="E143" t="s">
         <v>361</v>
       </c>
@@ -5796,6 +5961,9 @@
       <c r="C144" t="s">
         <v>358</v>
       </c>
+      <c r="D144" t="s">
+        <v>899</v>
+      </c>
       <c r="E144" t="s">
         <v>363</v>
       </c>
@@ -5813,6 +5981,9 @@
       <c r="C145" t="s">
         <v>358</v>
       </c>
+      <c r="D145" t="s">
+        <v>899</v>
+      </c>
       <c r="E145" t="s">
         <v>365</v>
       </c>
@@ -5830,6 +6001,9 @@
       <c r="C146" t="s">
         <v>212</v>
       </c>
+      <c r="D146" t="s">
+        <v>900</v>
+      </c>
       <c r="E146" t="s">
         <v>367</v>
       </c>
@@ -5847,6 +6021,9 @@
       <c r="C147" t="s">
         <v>16</v>
       </c>
+      <c r="D147" t="s">
+        <v>901</v>
+      </c>
       <c r="E147" t="s">
         <v>369</v>
       </c>
@@ -5864,6 +6041,9 @@
       <c r="C148" t="s">
         <v>265</v>
       </c>
+      <c r="D148" t="s">
+        <v>877</v>
+      </c>
       <c r="E148" t="s">
         <v>371</v>
       </c>
@@ -5898,6 +6078,9 @@
       <c r="C150" t="s">
         <v>376</v>
       </c>
+      <c r="D150" t="s">
+        <v>870</v>
+      </c>
       <c r="E150" t="s">
         <v>377</v>
       </c>
@@ -5915,6 +6098,9 @@
       <c r="C151" t="s">
         <v>379</v>
       </c>
+      <c r="D151" t="s">
+        <v>899</v>
+      </c>
       <c r="E151" t="s">
         <v>380</v>
       </c>
@@ -5932,6 +6118,9 @@
       <c r="C152" t="s">
         <v>382</v>
       </c>
+      <c r="D152" t="s">
+        <v>902</v>
+      </c>
       <c r="E152" t="s">
         <v>383</v>
       </c>
@@ -5949,6 +6138,9 @@
       <c r="C153" t="s">
         <v>385</v>
       </c>
+      <c r="D153" t="s">
+        <v>903</v>
+      </c>
       <c r="E153" t="s">
         <v>386</v>
       </c>
@@ -5966,6 +6158,9 @@
       <c r="C154" t="s">
         <v>388</v>
       </c>
+      <c r="D154" t="s">
+        <v>899</v>
+      </c>
       <c r="E154" t="s">
         <v>389</v>
       </c>
@@ -5983,6 +6178,9 @@
       <c r="C155" t="s">
         <v>391</v>
       </c>
+      <c r="D155" t="s">
+        <v>904</v>
+      </c>
       <c r="E155" t="s">
         <v>392</v>
       </c>
@@ -6051,6 +6249,9 @@
       <c r="C159" t="s">
         <v>401</v>
       </c>
+      <c r="D159" t="s">
+        <v>870</v>
+      </c>
       <c r="E159" t="s">
         <v>402</v>
       </c>
@@ -6102,6 +6303,9 @@
       <c r="C162" t="s">
         <v>410</v>
       </c>
+      <c r="D162" t="s">
+        <v>905</v>
+      </c>
       <c r="E162" t="s">
         <v>411</v>
       </c>
@@ -6136,6 +6340,9 @@
       <c r="C164" t="s">
         <v>273</v>
       </c>
+      <c r="D164" t="s">
+        <v>906</v>
+      </c>
       <c r="E164" t="s">
         <v>416</v>
       </c>
@@ -6204,6 +6411,9 @@
       <c r="C168" t="s">
         <v>426</v>
       </c>
+      <c r="D168" t="s">
+        <v>907</v>
+      </c>
       <c r="E168" t="s">
         <v>427</v>
       </c>
@@ -6238,6 +6448,9 @@
       <c r="C170" t="s">
         <v>432</v>
       </c>
+      <c r="D170" t="s">
+        <v>908</v>
+      </c>
       <c r="E170" t="s">
         <v>433</v>
       </c>
@@ -6272,6 +6485,9 @@
       <c r="C172" t="s">
         <v>438</v>
       </c>
+      <c r="D172" t="s">
+        <v>877</v>
+      </c>
       <c r="E172" t="s">
         <v>439</v>
       </c>
@@ -6289,6 +6505,9 @@
       <c r="C173" t="s">
         <v>441</v>
       </c>
+      <c r="D173" t="s">
+        <v>909</v>
+      </c>
       <c r="E173" t="s">
         <v>442</v>
       </c>
@@ -6306,6 +6525,9 @@
       <c r="C174" t="s">
         <v>444</v>
       </c>
+      <c r="D174" t="s">
+        <v>910</v>
+      </c>
       <c r="E174" t="s">
         <v>445</v>
       </c>
@@ -6323,6 +6545,9 @@
       <c r="C175" t="s">
         <v>447</v>
       </c>
+      <c r="D175" t="s">
+        <v>899</v>
+      </c>
       <c r="E175" t="s">
         <v>448</v>
       </c>
@@ -6374,6 +6599,9 @@
       <c r="C178" t="s">
         <v>438</v>
       </c>
+      <c r="D178" t="s">
+        <v>870</v>
+      </c>
       <c r="E178" t="s">
         <v>455</v>
       </c>
@@ -6391,6 +6619,9 @@
       <c r="C179" t="s">
         <v>447</v>
       </c>
+      <c r="D179" t="s">
+        <v>911</v>
+      </c>
       <c r="E179" t="s">
         <v>457</v>
       </c>
@@ -6408,6 +6639,9 @@
       <c r="C180" t="s">
         <v>459</v>
       </c>
+      <c r="D180" t="s">
+        <v>899</v>
+      </c>
       <c r="E180" t="s">
         <v>460</v>
       </c>
@@ -6442,6 +6676,9 @@
       <c r="C182" t="s">
         <v>401</v>
       </c>
+      <c r="D182" t="s">
+        <v>912</v>
+      </c>
       <c r="E182" t="s">
         <v>465</v>
       </c>
@@ -6476,6 +6713,9 @@
       <c r="C184" t="s">
         <v>470</v>
       </c>
+      <c r="D184" t="s">
+        <v>870</v>
+      </c>
       <c r="E184" t="s">
         <v>471</v>
       </c>
@@ -6493,6 +6733,9 @@
       <c r="C185" t="s">
         <v>473</v>
       </c>
+      <c r="D185" t="s">
+        <v>870</v>
+      </c>
       <c r="E185" t="s">
         <v>474</v>
       </c>
@@ -6527,6 +6770,9 @@
       <c r="C187" t="s">
         <v>52</v>
       </c>
+      <c r="D187" t="s">
+        <v>840</v>
+      </c>
       <c r="E187" t="s">
         <v>479</v>
       </c>
@@ -6544,6 +6790,9 @@
       <c r="C188" t="s">
         <v>481</v>
       </c>
+      <c r="D188" t="s">
+        <v>870</v>
+      </c>
       <c r="E188" t="s">
         <v>482</v>
       </c>
@@ -6561,6 +6810,9 @@
       <c r="C189" t="s">
         <v>484</v>
       </c>
+      <c r="D189" t="s">
+        <v>913</v>
+      </c>
       <c r="E189" t="s">
         <v>485</v>
       </c>
@@ -6697,6 +6949,9 @@
       <c r="C197" t="s">
         <v>487</v>
       </c>
+      <c r="D197" t="s">
+        <v>914</v>
+      </c>
       <c r="E197" t="s">
         <v>505</v>
       </c>
@@ -6731,6 +6986,9 @@
       <c r="C199" t="s">
         <v>510</v>
       </c>
+      <c r="D199" t="s">
+        <v>870</v>
+      </c>
       <c r="E199" t="s">
         <v>511</v>
       </c>
@@ -6765,6 +7023,9 @@
       <c r="C201" t="s">
         <v>516</v>
       </c>
+      <c r="D201" t="s">
+        <v>915</v>
+      </c>
       <c r="E201" t="s">
         <v>517</v>
       </c>
@@ -6782,6 +7043,9 @@
       <c r="C202" t="s">
         <v>171</v>
       </c>
+      <c r="D202" t="s">
+        <v>870</v>
+      </c>
       <c r="E202" t="s">
         <v>519</v>
       </c>
@@ -6799,6 +7063,9 @@
       <c r="C203" t="s">
         <v>521</v>
       </c>
+      <c r="D203" t="s">
+        <v>916</v>
+      </c>
       <c r="E203" t="s">
         <v>522</v>
       </c>
@@ -6816,6 +7083,9 @@
       <c r="C204" t="s">
         <v>524</v>
       </c>
+      <c r="D204" t="s">
+        <v>917</v>
+      </c>
       <c r="E204" t="s">
         <v>525</v>
       </c>
@@ -6833,6 +7103,9 @@
       <c r="C205" t="s">
         <v>524</v>
       </c>
+      <c r="D205" t="s">
+        <v>917</v>
+      </c>
       <c r="E205" t="s">
         <v>527</v>
       </c>
@@ -6867,6 +7140,9 @@
       <c r="C207" t="s">
         <v>531</v>
       </c>
+      <c r="D207" t="s">
+        <v>877</v>
+      </c>
       <c r="E207" t="s">
         <v>532</v>
       </c>
@@ -6884,6 +7160,9 @@
       <c r="C208" t="s">
         <v>265</v>
       </c>
+      <c r="D208" t="s">
+        <v>877</v>
+      </c>
       <c r="E208" t="s">
         <v>534</v>
       </c>
@@ -6918,6 +7197,9 @@
       <c r="C210" t="s">
         <v>539</v>
       </c>
+      <c r="D210" t="s">
+        <v>918</v>
+      </c>
       <c r="E210" t="s">
         <v>540</v>
       </c>
@@ -6935,6 +7217,9 @@
       <c r="C211" t="s">
         <v>542</v>
       </c>
+      <c r="D211" t="s">
+        <v>918</v>
+      </c>
       <c r="E211" t="s">
         <v>543</v>
       </c>
@@ -6952,6 +7237,9 @@
       <c r="C212" t="s">
         <v>273</v>
       </c>
+      <c r="D212" t="s">
+        <v>919</v>
+      </c>
       <c r="E212" t="s">
         <v>545</v>
       </c>
@@ -7037,6 +7325,9 @@
       <c r="C217" t="s">
         <v>273</v>
       </c>
+      <c r="D217" t="s">
+        <v>899</v>
+      </c>
       <c r="E217" t="s">
         <v>557</v>
       </c>
@@ -7054,6 +7345,9 @@
       <c r="C218" t="s">
         <v>559</v>
       </c>
+      <c r="D218" t="s">
+        <v>920</v>
+      </c>
       <c r="E218" t="s">
         <v>560</v>
       </c>
@@ -7122,6 +7416,9 @@
       <c r="C222" t="s">
         <v>568</v>
       </c>
+      <c r="D222" t="s">
+        <v>840</v>
+      </c>
       <c r="E222" t="s">
         <v>569</v>
       </c>
@@ -7139,6 +7436,9 @@
       <c r="C223" t="s">
         <v>571</v>
       </c>
+      <c r="D223" t="s">
+        <v>877</v>
+      </c>
       <c r="E223" t="s">
         <v>572</v>
       </c>
@@ -7156,6 +7456,9 @@
       <c r="C224" t="s">
         <v>574</v>
       </c>
+      <c r="D224" t="s">
+        <v>921</v>
+      </c>
       <c r="E224" t="s">
         <v>575</v>
       </c>
@@ -7190,6 +7493,9 @@
       <c r="C226" t="s">
         <v>5</v>
       </c>
+      <c r="D226" t="s">
+        <v>824</v>
+      </c>
       <c r="E226" t="s">
         <v>580</v>
       </c>
@@ -7241,6 +7547,9 @@
       <c r="C229" t="s">
         <v>265</v>
       </c>
+      <c r="D229" t="s">
+        <v>922</v>
+      </c>
       <c r="E229" t="s">
         <v>587</v>
       </c>
@@ -7258,6 +7567,9 @@
       <c r="C230" t="s">
         <v>52</v>
       </c>
+      <c r="D230" t="s">
+        <v>840</v>
+      </c>
       <c r="E230" t="s">
         <v>589</v>
       </c>
@@ -7275,6 +7587,9 @@
       <c r="C231" t="s">
         <v>52</v>
       </c>
+      <c r="D231" t="s">
+        <v>840</v>
+      </c>
       <c r="E231" t="s">
         <v>591</v>
       </c>
@@ -7309,6 +7624,9 @@
       <c r="C233" t="s">
         <v>596</v>
       </c>
+      <c r="D233" t="s">
+        <v>923</v>
+      </c>
       <c r="E233" t="s">
         <v>597</v>
       </c>
@@ -7343,6 +7661,9 @@
       <c r="C235" t="s">
         <v>196</v>
       </c>
+      <c r="D235" t="s">
+        <v>924</v>
+      </c>
       <c r="E235" t="s">
         <v>601</v>
       </c>
@@ -7479,6 +7800,9 @@
       <c r="C243" t="s">
         <v>620</v>
       </c>
+      <c r="D243" t="s">
+        <v>899</v>
+      </c>
       <c r="E243" t="s">
         <v>621</v>
       </c>
@@ -7496,6 +7820,9 @@
       <c r="C244" t="s">
         <v>623</v>
       </c>
+      <c r="D244" t="s">
+        <v>854</v>
+      </c>
       <c r="E244" t="s">
         <v>624</v>
       </c>
@@ -7513,6 +7840,9 @@
       <c r="C245" t="s">
         <v>626</v>
       </c>
+      <c r="D245" t="s">
+        <v>925</v>
+      </c>
       <c r="E245" t="s">
         <v>627</v>
       </c>
@@ -7530,6 +7860,9 @@
       <c r="C246" t="s">
         <v>16</v>
       </c>
+      <c r="D246" t="s">
+        <v>926</v>
+      </c>
       <c r="E246" t="s">
         <v>629</v>
       </c>
@@ -7547,6 +7880,9 @@
       <c r="C247" t="s">
         <v>631</v>
       </c>
+      <c r="D247" t="s">
+        <v>874</v>
+      </c>
       <c r="E247" t="s">
         <v>632</v>
       </c>
@@ -7598,6 +7934,9 @@
       <c r="C250" t="s">
         <v>639</v>
       </c>
+      <c r="D250" t="s">
+        <v>826</v>
+      </c>
       <c r="E250" t="s">
         <v>640</v>
       </c>
@@ -7615,6 +7954,9 @@
       <c r="C251" t="s">
         <v>52</v>
       </c>
+      <c r="D251" t="s">
+        <v>843</v>
+      </c>
       <c r="E251" t="s">
         <v>642</v>
       </c>
@@ -7649,6 +7991,9 @@
       <c r="C253" t="s">
         <v>647</v>
       </c>
+      <c r="D253" t="s">
+        <v>870</v>
+      </c>
       <c r="E253" t="s">
         <v>648</v>
       </c>
@@ -7700,6 +8045,9 @@
       <c r="C256" t="s">
         <v>655</v>
       </c>
+      <c r="D256" t="s">
+        <v>904</v>
+      </c>
       <c r="E256" t="s">
         <v>656</v>
       </c>
@@ -7717,6 +8065,9 @@
       <c r="C257" t="s">
         <v>203</v>
       </c>
+      <c r="D257" t="s">
+        <v>927</v>
+      </c>
       <c r="E257" t="s">
         <v>658</v>
       </c>
@@ -7734,6 +8085,9 @@
       <c r="C258" t="s">
         <v>265</v>
       </c>
+      <c r="D258" t="s">
+        <v>870</v>
+      </c>
       <c r="E258" t="s">
         <v>660</v>
       </c>
@@ -7751,6 +8105,9 @@
       <c r="C259" t="s">
         <v>52</v>
       </c>
+      <c r="D259" t="s">
+        <v>843</v>
+      </c>
       <c r="E259" t="s">
         <v>662</v>
       </c>
@@ -7785,6 +8142,9 @@
       <c r="C261" t="s">
         <v>666</v>
       </c>
+      <c r="D261" t="s">
+        <v>928</v>
+      </c>
       <c r="E261" t="s">
         <v>667</v>
       </c>
@@ -7853,6 +8213,9 @@
       <c r="C265" t="s">
         <v>507</v>
       </c>
+      <c r="D265" t="s">
+        <v>929</v>
+      </c>
       <c r="E265" t="s">
         <v>676</v>
       </c>
@@ -7870,6 +8233,9 @@
       <c r="C266" t="s">
         <v>678</v>
       </c>
+      <c r="D266" t="s">
+        <v>837</v>
+      </c>
       <c r="E266" t="s">
         <v>679</v>
       </c>
@@ -7921,6 +8287,9 @@
       <c r="C269" t="s">
         <v>685</v>
       </c>
+      <c r="D269" t="s">
+        <v>826</v>
+      </c>
       <c r="E269" t="s">
         <v>686</v>
       </c>
@@ -7955,6 +8324,9 @@
       <c r="C271" t="s">
         <v>43</v>
       </c>
+      <c r="D271" t="s">
+        <v>930</v>
+      </c>
       <c r="E271" t="s">
         <v>690</v>
       </c>
@@ -7989,6 +8361,9 @@
       <c r="C273" t="s">
         <v>695</v>
       </c>
+      <c r="D273" t="s">
+        <v>931</v>
+      </c>
       <c r="E273" t="s">
         <v>696</v>
       </c>
@@ -8057,6 +8432,9 @@
       <c r="C277" t="s">
         <v>43</v>
       </c>
+      <c r="D277" t="s">
+        <v>826</v>
+      </c>
       <c r="E277" t="s">
         <v>707</v>
       </c>
@@ -8074,6 +8452,9 @@
       <c r="C278" t="s">
         <v>43</v>
       </c>
+      <c r="D278" t="s">
+        <v>932</v>
+      </c>
       <c r="E278" t="s">
         <v>709</v>
       </c>
@@ -8091,6 +8472,9 @@
       <c r="C279" t="s">
         <v>391</v>
       </c>
+      <c r="D279" t="s">
+        <v>933</v>
+      </c>
       <c r="E279" t="s">
         <v>711</v>
       </c>
@@ -8125,6 +8509,9 @@
       <c r="C281" t="s">
         <v>441</v>
       </c>
+      <c r="D281" t="s">
+        <v>934</v>
+      </c>
       <c r="E281" t="s">
         <v>715</v>
       </c>
@@ -8142,6 +8529,9 @@
       <c r="C282" t="s">
         <v>43</v>
       </c>
+      <c r="D282" t="s">
+        <v>826</v>
+      </c>
       <c r="E282" t="s">
         <v>717</v>
       </c>
@@ -8159,6 +8549,9 @@
       <c r="C283" t="s">
         <v>43</v>
       </c>
+      <c r="D283" t="s">
+        <v>826</v>
+      </c>
       <c r="E283" t="s">
         <v>719</v>
       </c>
@@ -8176,6 +8569,9 @@
       <c r="C284" t="s">
         <v>623</v>
       </c>
+      <c r="D284" t="s">
+        <v>854</v>
+      </c>
       <c r="E284" t="s">
         <v>721</v>
       </c>
@@ -8227,6 +8623,9 @@
       <c r="C287" t="s">
         <v>729</v>
       </c>
+      <c r="D287" t="s">
+        <v>935</v>
+      </c>
       <c r="E287" t="s">
         <v>730</v>
       </c>
@@ -8244,6 +8643,9 @@
       <c r="C288" t="s">
         <v>473</v>
       </c>
+      <c r="D288" t="s">
+        <v>936</v>
+      </c>
       <c r="E288" t="s">
         <v>732</v>
       </c>
@@ -8261,6 +8663,9 @@
       <c r="C289" t="s">
         <v>473</v>
       </c>
+      <c r="D289" t="s">
+        <v>937</v>
+      </c>
       <c r="E289" t="s">
         <v>734</v>
       </c>
@@ -8278,6 +8683,9 @@
       <c r="C290" t="s">
         <v>736</v>
       </c>
+      <c r="D290" t="s">
+        <v>899</v>
+      </c>
       <c r="E290" t="s">
         <v>737</v>
       </c>
@@ -8329,6 +8737,9 @@
       <c r="C293" t="s">
         <v>743</v>
       </c>
+      <c r="D293" t="s">
+        <v>837</v>
+      </c>
       <c r="E293" t="s">
         <v>744</v>
       </c>
@@ -8346,6 +8757,9 @@
       <c r="C294" t="s">
         <v>80</v>
       </c>
+      <c r="D294" t="s">
+        <v>899</v>
+      </c>
       <c r="E294" t="s">
         <v>746</v>
       </c>
@@ -8431,6 +8845,9 @@
       <c r="C299" t="s">
         <v>43</v>
       </c>
+      <c r="D299" t="s">
+        <v>938</v>
+      </c>
       <c r="E299" t="s">
         <v>757</v>
       </c>
@@ -8448,6 +8865,9 @@
       <c r="C300" t="s">
         <v>759</v>
       </c>
+      <c r="D300" t="s">
+        <v>939</v>
+      </c>
       <c r="E300" t="s">
         <v>760</v>
       </c>
@@ -8516,6 +8936,9 @@
       <c r="C304" t="s">
         <v>470</v>
       </c>
+      <c r="D304" t="s">
+        <v>870</v>
+      </c>
       <c r="E304" t="s">
         <v>771</v>
       </c>
@@ -8567,6 +8990,9 @@
       <c r="C307" t="s">
         <v>43</v>
       </c>
+      <c r="D307" t="s">
+        <v>940</v>
+      </c>
       <c r="E307" t="s">
         <v>778</v>
       </c>
@@ -8584,6 +9010,9 @@
       <c r="C308" t="s">
         <v>43</v>
       </c>
+      <c r="D308" t="s">
+        <v>940</v>
+      </c>
       <c r="E308" t="s">
         <v>780</v>
       </c>
@@ -8601,6 +9030,9 @@
       <c r="C309" t="s">
         <v>43</v>
       </c>
+      <c r="D309" t="s">
+        <v>940</v>
+      </c>
       <c r="E309" t="s">
         <v>782</v>
       </c>
@@ -8618,6 +9050,9 @@
       <c r="C310" t="s">
         <v>27</v>
       </c>
+      <c r="D310" t="s">
+        <v>941</v>
+      </c>
       <c r="E310" t="s">
         <v>713</v>
       </c>
@@ -8703,6 +9138,9 @@
       <c r="C315" t="s">
         <v>43</v>
       </c>
+      <c r="D315" t="s">
+        <v>826</v>
+      </c>
       <c r="E315" t="s">
         <v>794</v>
       </c>
@@ -8720,6 +9158,9 @@
       <c r="C316" t="s">
         <v>43</v>
       </c>
+      <c r="D316" t="s">
+        <v>826</v>
+      </c>
       <c r="E316" t="s">
         <v>796</v>
       </c>
@@ -8737,6 +9178,9 @@
       <c r="C317" t="s">
         <v>43</v>
       </c>
+      <c r="D317" t="s">
+        <v>826</v>
+      </c>
       <c r="E317" t="s">
         <v>798</v>
       </c>
@@ -8771,6 +9215,9 @@
       <c r="C319" t="s">
         <v>802</v>
       </c>
+      <c r="D319" t="s">
+        <v>942</v>
+      </c>
       <c r="E319" t="s">
         <v>803</v>
       </c>
@@ -8788,6 +9235,9 @@
       <c r="C320" t="s">
         <v>802</v>
       </c>
+      <c r="D320" t="s">
+        <v>943</v>
+      </c>
       <c r="E320" t="s">
         <v>805</v>
       </c>
@@ -8805,6 +9255,9 @@
       <c r="C321" t="s">
         <v>802</v>
       </c>
+      <c r="D321" t="s">
+        <v>943</v>
+      </c>
       <c r="E321" t="s">
         <v>807</v>
       </c>
@@ -8839,6 +9292,9 @@
       <c r="C323" t="s">
         <v>811</v>
       </c>
+      <c r="D323" t="s">
+        <v>899</v>
+      </c>
       <c r="E323" t="s">
         <v>812</v>
       </c>
@@ -8889,6 +9345,9 @@
       </c>
       <c r="C326" t="s">
         <v>820</v>
+      </c>
+      <c r="D326" t="s">
+        <v>944</v>
       </c>
       <c r="E326" t="s">
         <v>821</v>

--- a/resources/inputText/corpus_tentative/other/twitter.xlsx
+++ b/resources/inputText/corpus_tentative/other/twitter.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="twitter" localSheetId="0">Feuil1!$A$1:$A$326</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C313" workbookViewId="0">
-      <selection activeCell="D326" sqref="D326"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
